--- a/Code/Results/Cases/Case_4_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_54/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.40050782316413</v>
+        <v>17.40050782316418</v>
       </c>
       <c r="C2">
-        <v>24.05551586638631</v>
+        <v>24.05551586638603</v>
       </c>
       <c r="D2">
-        <v>7.246408270586152</v>
+        <v>7.246408270586156</v>
       </c>
       <c r="E2">
-        <v>11.09461840870704</v>
+        <v>11.09461840870698</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,19 +430,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>64.46004138126649</v>
+        <v>64.46004138126612</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>19.04050323360065</v>
+        <v>19.04050323360055</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>18.3950540190433</v>
+        <v>18.39505401904325</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.9741153056373</v>
+        <v>15.97411530563722</v>
       </c>
       <c r="C3">
-        <v>22.23511229719196</v>
+        <v>22.23511229719205</v>
       </c>
       <c r="D3">
-        <v>6.699725428299025</v>
+        <v>6.699725428299151</v>
       </c>
       <c r="E3">
-        <v>10.40248382191527</v>
+        <v>10.40248382191528</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.32969450914705</v>
+        <v>60.32969450914724</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>17.54335347103255</v>
+        <v>17.54335347103254</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>16.99614331643814</v>
+        <v>16.99614331643821</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.07360648509216</v>
+        <v>15.07360648509209</v>
       </c>
       <c r="C4">
-        <v>21.07767352959822</v>
+        <v>21.07767352959826</v>
       </c>
       <c r="D4">
-        <v>6.351121835904407</v>
+        <v>6.35112183590453</v>
       </c>
       <c r="E4">
-        <v>9.96921261701716</v>
+        <v>9.969212617017206</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57.72125816908472</v>
+        <v>57.72125816908488</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>16.59348116856707</v>
+        <v>16.59348116856704</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.10635284840174</v>
+        <v>16.10635284840168</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.69982429186848</v>
+        <v>14.69982429186855</v>
       </c>
       <c r="C5">
-        <v>20.5954896423229</v>
+        <v>20.59548964232304</v>
       </c>
       <c r="D5">
-        <v>6.21235201027578</v>
+        <v>6.212352010275747</v>
       </c>
       <c r="E5">
-        <v>9.790515254845873</v>
+        <v>9.790515254846003</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56.63943070094754</v>
+        <v>56.63943070094801</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>16.19811929605586</v>
+        <v>16.19811929605603</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.73548858830553</v>
+        <v>15.73548858830565</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.63733029494696</v>
+        <v>14.63733029494697</v>
       </c>
       <c r="C6">
-        <v>20.51477438962566</v>
+        <v>20.51477438962571</v>
       </c>
       <c r="D6">
-        <v>6.191891831340822</v>
+        <v>6.191891831340789</v>
       </c>
       <c r="E6">
-        <v>9.760713453595837</v>
+        <v>9.760713453595848</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56.45864063469184</v>
+        <v>56.45864063469187</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>16.13195408341935</v>
+        <v>16.13195408341936</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.67339390237588</v>
+        <v>15.6733939023759</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.06859386643083</v>
+        <v>15.06859386643081</v>
       </c>
       <c r="C7">
-        <v>21.07121385032999</v>
+        <v>21.07121385032993</v>
       </c>
       <c r="D7">
-        <v>6.349173801944186</v>
+        <v>6.349173801944162</v>
       </c>
       <c r="E7">
-        <v>9.9668113094537</v>
+        <v>9.966811309453707</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>16.58818342190933</v>
+        <v>16.58818342190929</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.91341710101521</v>
+        <v>16.9134171010151</v>
       </c>
       <c r="C8">
         <v>23.4357262722422</v>
       </c>
       <c r="D8">
-        <v>7.060481317241271</v>
+        <v>7.060481317241083</v>
       </c>
       <c r="E8">
-        <v>10.85764277037525</v>
+        <v>10.85764277037522</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.05042516881009</v>
+        <v>63.05042516880987</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>18.53026250580398</v>
+        <v>18.53026250580391</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.91878420108607</v>
+        <v>17.91878420108606</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.36865716207289</v>
+        <v>20.36865716207303</v>
       </c>
       <c r="C9">
-        <v>27.78799158288842</v>
+        <v>27.78799158288847</v>
       </c>
       <c r="D9">
-        <v>8.362351015062803</v>
+        <v>8.362351015062748</v>
       </c>
       <c r="E9">
-        <v>12.54468783920218</v>
+        <v>12.54468783920222</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>73.0028324507639</v>
+        <v>73.00283245076403</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>22.12742475256239</v>
+        <v>22.12742475256249</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>21.26535859576362</v>
+        <v>21.26535859576371</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.86770644642705</v>
+        <v>22.86770644642681</v>
       </c>
       <c r="C10">
-        <v>30.86737981514139</v>
+        <v>30.86737981514124</v>
       </c>
       <c r="D10">
-        <v>9.278909300224848</v>
+        <v>9.278909300224846</v>
       </c>
       <c r="E10">
-        <v>13.76250775567918</v>
+        <v>13.7625077556791</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>80.09254771931988</v>
+        <v>80.0925477193189</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>24.69713824037639</v>
+        <v>24.69713824037619</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>23.63956452533092</v>
+        <v>23.63956452533078</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.01453630401016</v>
+        <v>24.0145363040102</v>
       </c>
       <c r="C11">
-        <v>32.26001355724955</v>
+        <v>32.26001355724951</v>
       </c>
       <c r="D11">
-        <v>9.692320608224639</v>
+        <v>9.692320608224515</v>
       </c>
       <c r="E11">
-        <v>14.3440924088654</v>
+        <v>14.34409240886536</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,13 +772,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>83.30343514911115</v>
+        <v>83.30343514911118</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>25.86747328166975</v>
+        <v>25.86747328166969</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.45239064286663</v>
+        <v>24.45239064286672</v>
       </c>
       <c r="C12">
-        <v>32.78820886135644</v>
+        <v>32.78820886135658</v>
       </c>
       <c r="D12">
-        <v>9.848944378273323</v>
+        <v>9.848944378273217</v>
       </c>
       <c r="E12">
-        <v>14.57440984509777</v>
+        <v>14.5744098450978</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>84.52131928093732</v>
+        <v>84.52131928093753</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>26.31282307385928</v>
+        <v>26.31282307385939</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>25.12483006620301</v>
+        <v>25.12483006620312</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.35789061002008</v>
+        <v>24.35789061002001</v>
       </c>
       <c r="C13">
-        <v>32.67437646815686</v>
+        <v>32.67437646815682</v>
       </c>
       <c r="D13">
-        <v>9.815198165561293</v>
+        <v>9.815198165561258</v>
       </c>
       <c r="E13">
-        <v>14.52479650767033</v>
+        <v>14.52479650767036</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>84.25885872595245</v>
+        <v>84.25885872595218</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>26.21677445915335</v>
+        <v>26.21677445915331</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>25.03670221046927</v>
+        <v>25.03670221046924</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.05047258226455</v>
+        <v>24.05047258226459</v>
       </c>
       <c r="C14">
-        <v>32.30343797589902</v>
+        <v>32.3034379758991</v>
       </c>
       <c r="D14">
-        <v>9.70520069320623</v>
+        <v>9.705200693206191</v>
       </c>
       <c r="E14">
-        <v>14.36303760474295</v>
+        <v>14.36303760474302</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>83.40356339521617</v>
+        <v>83.40356339521594</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>25.90405551160567</v>
+        <v>25.90405551160571</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>24.7496235859278</v>
+        <v>24.7496235859279</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.86271032664863</v>
+        <v>23.86271032664872</v>
       </c>
       <c r="C15">
-        <v>32.07640658714151</v>
+        <v>32.07640658714185</v>
       </c>
       <c r="D15">
-        <v>9.637853940233684</v>
+        <v>9.637853940233663</v>
       </c>
       <c r="E15">
-        <v>14.26396841034635</v>
+        <v>14.26396841034633</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>82.88007199067778</v>
+        <v>82.88007199067809</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>25.71285750022259</v>
+        <v>25.71285750022274</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>24.57399094802698</v>
+        <v>24.57399094802706</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.79312811828714</v>
+        <v>22.79312811828747</v>
       </c>
       <c r="C16">
-        <v>30.77636168654767</v>
+        <v>30.77636168654777</v>
       </c>
       <c r="D16">
-        <v>9.2518667688741</v>
+        <v>9.251866768874093</v>
       </c>
       <c r="E16">
-        <v>13.72631340298498</v>
+        <v>13.726313402985</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>79.88273864502912</v>
+        <v>79.88273864502973</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>24.62083716478023</v>
+        <v>24.62083716478044</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>23.56927633471471</v>
+        <v>23.56927633471481</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.14086734759915</v>
+        <v>22.14086734759933</v>
       </c>
       <c r="C17">
-        <v>29.9779812085298</v>
+        <v>29.97798120853004</v>
       </c>
       <c r="D17">
-        <v>9.014534965000335</v>
+        <v>9.014534965000403</v>
       </c>
       <c r="E17">
-        <v>13.40928963278255</v>
+        <v>13.40928963278258</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>78.04281483230723</v>
+        <v>78.04281483230781</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>23.95249793308129</v>
+        <v>23.95249793308145</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>22.95305338832526</v>
+        <v>22.95305338832537</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.76648730139916</v>
+        <v>21.76648730139924</v>
       </c>
       <c r="C18">
-        <v>29.51785319700641</v>
+        <v>29.51785319700632</v>
       </c>
       <c r="D18">
-        <v>8.877652328789599</v>
+        <v>8.877652328789546</v>
       </c>
       <c r="E18">
-        <v>13.22698458664567</v>
+        <v>13.22698458664566</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>76.98289327969313</v>
+        <v>76.98289327969286</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>23.56806900203081</v>
+        <v>23.56806900203085</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>22.59815720858562</v>
+        <v>22.59815720858565</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.63980786387247</v>
+        <v>21.63980786387266</v>
       </c>
       <c r="C19">
-        <v>29.36185159980456</v>
+        <v>29.36185159980468</v>
       </c>
       <c r="D19">
-        <v>8.831226562681296</v>
+        <v>8.831226562681364</v>
       </c>
       <c r="E19">
-        <v>13.16524814515251</v>
+        <v>13.1652481451526</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>76.62363602283565</v>
+        <v>76.62363602283646</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>23.43785377063431</v>
+        <v>23.43785377063451</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>22.47787255244052</v>
+        <v>22.47787255244065</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.2102070772318</v>
+        <v>22.21020707723158</v>
       </c>
       <c r="C20">
-        <v>30.06305275519069</v>
+        <v>30.06305275519078</v>
       </c>
       <c r="D20">
-        <v>9.039834527911363</v>
+        <v>9.039834527911211</v>
       </c>
       <c r="E20">
-        <v>13.44302900562015</v>
+        <v>13.44302900562012</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>78.23882293847333</v>
+        <v>78.23882293847336</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>24.0236331578195</v>
+        <v>24.02363315781938</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>23.01868842040509</v>
+        <v>23.01868842040499</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.14065134464689</v>
+        <v>24.14065134464685</v>
       </c>
       <c r="C21">
-        <v>32.41234974437921</v>
+        <v>32.41234974437934</v>
       </c>
       <c r="D21">
-        <v>9.737502091845194</v>
+        <v>9.737502091845233</v>
       </c>
       <c r="E21">
-        <v>14.41054562992324</v>
+        <v>14.4105456299232</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,13 +1152,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>83.65469148139078</v>
+        <v>83.65469148139101</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>25.99583099743808</v>
+        <v>25.99583099743812</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.4246758020538</v>
+        <v>25.42467580205403</v>
       </c>
       <c r="C22">
-        <v>33.95406454971043</v>
+        <v>33.95406454971047</v>
       </c>
       <c r="D22">
-        <v>10.19431207959543</v>
+        <v>10.1943120795953</v>
       </c>
       <c r="E22">
-        <v>15.08180992957144</v>
+        <v>15.08180992957149</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>87.20882809711429</v>
+        <v>87.20882809711458</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>27.29883211635631</v>
+        <v>27.29883211635642</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>26.02827242071058</v>
+        <v>26.02827242071069</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.73642634415081</v>
+        <v>24.73642634415083</v>
       </c>
       <c r="C23">
-        <v>33.12980040507366</v>
+        <v>33.12980040507379</v>
       </c>
       <c r="D23">
-        <v>9.950184316747482</v>
+        <v>9.95018431674751</v>
       </c>
       <c r="E23">
-        <v>14.72321515409621</v>
+        <v>14.72321515409622</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>85.30887476632135</v>
+        <v>85.30887476632103</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>26.60128427284902</v>
+        <v>26.60128427284899</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>25.38937340479855</v>
+        <v>25.38937340479854</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.17885682670003</v>
+        <v>22.1788568266998</v>
       </c>
       <c r="C24">
-        <v>30.02459556670511</v>
+        <v>30.02459556670477</v>
       </c>
       <c r="D24">
-        <v>9.028397999403859</v>
+        <v>9.028397999403833</v>
       </c>
       <c r="E24">
-        <v>13.42777562133485</v>
+        <v>13.4277756213347</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>78.15021457808213</v>
+        <v>78.15021457808115</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>23.99147366033469</v>
+        <v>23.99147366033444</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>22.98901687771202</v>
+        <v>22.9890168777118</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.44598386130618</v>
+        <v>19.4459838613062</v>
       </c>
       <c r="C25">
-        <v>26.63614107131357</v>
+        <v>26.63614107131362</v>
       </c>
       <c r="D25">
-        <v>8.018599065513738</v>
+        <v>8.018599065513701</v>
       </c>
       <c r="E25">
-        <v>12.09354605427111</v>
+        <v>12.09354605427116</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>70.35850379624856</v>
+        <v>70.35850379624881</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>20.37895930466743</v>
+        <v>20.3789593046674</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_54/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.40050782316418</v>
+        <v>17.40050782316413</v>
       </c>
       <c r="C2">
-        <v>24.05551586638603</v>
+        <v>24.05551586638631</v>
       </c>
       <c r="D2">
-        <v>7.246408270586156</v>
+        <v>7.246408270586152</v>
       </c>
       <c r="E2">
-        <v>11.09461840870698</v>
+        <v>11.09461840870704</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,19 +430,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>64.46004138126612</v>
+        <v>64.46004138126649</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>19.04050323360055</v>
+        <v>19.04050323360065</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>18.39505401904325</v>
+        <v>18.3950540190433</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.97411530563722</v>
+        <v>15.9741153056373</v>
       </c>
       <c r="C3">
-        <v>22.23511229719205</v>
+        <v>22.23511229719196</v>
       </c>
       <c r="D3">
-        <v>6.699725428299151</v>
+        <v>6.699725428299025</v>
       </c>
       <c r="E3">
-        <v>10.40248382191528</v>
+        <v>10.40248382191527</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.32969450914724</v>
+        <v>60.32969450914705</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>17.54335347103254</v>
+        <v>17.54335347103255</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>16.99614331643821</v>
+        <v>16.99614331643814</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.07360648509209</v>
+        <v>15.07360648509216</v>
       </c>
       <c r="C4">
-        <v>21.07767352959826</v>
+        <v>21.07767352959822</v>
       </c>
       <c r="D4">
-        <v>6.35112183590453</v>
+        <v>6.351121835904407</v>
       </c>
       <c r="E4">
-        <v>9.969212617017206</v>
+        <v>9.96921261701716</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57.72125816908488</v>
+        <v>57.72125816908472</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>16.59348116856704</v>
+        <v>16.59348116856707</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.10635284840168</v>
+        <v>16.10635284840174</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.69982429186855</v>
+        <v>14.69982429186848</v>
       </c>
       <c r="C5">
-        <v>20.59548964232304</v>
+        <v>20.5954896423229</v>
       </c>
       <c r="D5">
-        <v>6.212352010275747</v>
+        <v>6.21235201027578</v>
       </c>
       <c r="E5">
-        <v>9.790515254846003</v>
+        <v>9.790515254845873</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56.63943070094801</v>
+        <v>56.63943070094754</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>16.19811929605603</v>
+        <v>16.19811929605586</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.73548858830565</v>
+        <v>15.73548858830553</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.63733029494697</v>
+        <v>14.63733029494696</v>
       </c>
       <c r="C6">
-        <v>20.51477438962571</v>
+        <v>20.51477438962566</v>
       </c>
       <c r="D6">
-        <v>6.191891831340789</v>
+        <v>6.191891831340822</v>
       </c>
       <c r="E6">
-        <v>9.760713453595848</v>
+        <v>9.760713453595837</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56.45864063469187</v>
+        <v>56.45864063469184</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>16.13195408341936</v>
+        <v>16.13195408341935</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.6733939023759</v>
+        <v>15.67339390237588</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.06859386643081</v>
+        <v>15.06859386643083</v>
       </c>
       <c r="C7">
-        <v>21.07121385032993</v>
+        <v>21.07121385032999</v>
       </c>
       <c r="D7">
-        <v>6.349173801944162</v>
+        <v>6.349173801944186</v>
       </c>
       <c r="E7">
-        <v>9.966811309453707</v>
+        <v>9.9668113094537</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>16.58818342190929</v>
+        <v>16.58818342190933</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.9134171010151</v>
+        <v>16.91341710101521</v>
       </c>
       <c r="C8">
         <v>23.4357262722422</v>
       </c>
       <c r="D8">
-        <v>7.060481317241083</v>
+        <v>7.060481317241271</v>
       </c>
       <c r="E8">
-        <v>10.85764277037522</v>
+        <v>10.85764277037525</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.05042516880987</v>
+        <v>63.05042516881009</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>18.53026250580391</v>
+        <v>18.53026250580398</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.91878420108606</v>
+        <v>17.91878420108607</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.36865716207303</v>
+        <v>20.36865716207289</v>
       </c>
       <c r="C9">
-        <v>27.78799158288847</v>
+        <v>27.78799158288842</v>
       </c>
       <c r="D9">
-        <v>8.362351015062748</v>
+        <v>8.362351015062803</v>
       </c>
       <c r="E9">
-        <v>12.54468783920222</v>
+        <v>12.54468783920218</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>73.00283245076403</v>
+        <v>73.0028324507639</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>22.12742475256249</v>
+        <v>22.12742475256239</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>21.26535859576371</v>
+        <v>21.26535859576362</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.86770644642681</v>
+        <v>22.86770644642705</v>
       </c>
       <c r="C10">
-        <v>30.86737981514124</v>
+        <v>30.86737981514139</v>
       </c>
       <c r="D10">
-        <v>9.278909300224846</v>
+        <v>9.278909300224848</v>
       </c>
       <c r="E10">
-        <v>13.7625077556791</v>
+        <v>13.76250775567918</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>80.0925477193189</v>
+        <v>80.09254771931988</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>24.69713824037619</v>
+        <v>24.69713824037639</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>23.63956452533078</v>
+        <v>23.63956452533092</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.0145363040102</v>
+        <v>24.01453630401016</v>
       </c>
       <c r="C11">
-        <v>32.26001355724951</v>
+        <v>32.26001355724955</v>
       </c>
       <c r="D11">
-        <v>9.692320608224515</v>
+        <v>9.692320608224639</v>
       </c>
       <c r="E11">
-        <v>14.34409240886536</v>
+        <v>14.3440924088654</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,13 +772,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>83.30343514911118</v>
+        <v>83.30343514911115</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>25.86747328166969</v>
+        <v>25.86747328166975</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.45239064286672</v>
+        <v>24.45239064286663</v>
       </c>
       <c r="C12">
-        <v>32.78820886135658</v>
+        <v>32.78820886135644</v>
       </c>
       <c r="D12">
-        <v>9.848944378273217</v>
+        <v>9.848944378273323</v>
       </c>
       <c r="E12">
-        <v>14.5744098450978</v>
+        <v>14.57440984509777</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>84.52131928093753</v>
+        <v>84.52131928093732</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>26.31282307385939</v>
+        <v>26.31282307385928</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>25.12483006620312</v>
+        <v>25.12483006620301</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.35789061002001</v>
+        <v>24.35789061002008</v>
       </c>
       <c r="C13">
-        <v>32.67437646815682</v>
+        <v>32.67437646815686</v>
       </c>
       <c r="D13">
-        <v>9.815198165561258</v>
+        <v>9.815198165561293</v>
       </c>
       <c r="E13">
-        <v>14.52479650767036</v>
+        <v>14.52479650767033</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>84.25885872595218</v>
+        <v>84.25885872595245</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>26.21677445915331</v>
+        <v>26.21677445915335</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>25.03670221046924</v>
+        <v>25.03670221046927</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.05047258226459</v>
+        <v>24.05047258226455</v>
       </c>
       <c r="C14">
-        <v>32.3034379758991</v>
+        <v>32.30343797589902</v>
       </c>
       <c r="D14">
-        <v>9.705200693206191</v>
+        <v>9.70520069320623</v>
       </c>
       <c r="E14">
-        <v>14.36303760474302</v>
+        <v>14.36303760474295</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>83.40356339521594</v>
+        <v>83.40356339521617</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>25.90405551160571</v>
+        <v>25.90405551160567</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>24.7496235859279</v>
+        <v>24.7496235859278</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.86271032664872</v>
+        <v>23.86271032664863</v>
       </c>
       <c r="C15">
-        <v>32.07640658714185</v>
+        <v>32.07640658714151</v>
       </c>
       <c r="D15">
-        <v>9.637853940233663</v>
+        <v>9.637853940233684</v>
       </c>
       <c r="E15">
-        <v>14.26396841034633</v>
+        <v>14.26396841034635</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>82.88007199067809</v>
+        <v>82.88007199067778</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>25.71285750022274</v>
+        <v>25.71285750022259</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>24.57399094802706</v>
+        <v>24.57399094802698</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.79312811828747</v>
+        <v>22.79312811828714</v>
       </c>
       <c r="C16">
-        <v>30.77636168654777</v>
+        <v>30.77636168654767</v>
       </c>
       <c r="D16">
-        <v>9.251866768874093</v>
+        <v>9.2518667688741</v>
       </c>
       <c r="E16">
-        <v>13.726313402985</v>
+        <v>13.72631340298498</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>79.88273864502973</v>
+        <v>79.88273864502912</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>24.62083716478044</v>
+        <v>24.62083716478023</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>23.56927633471481</v>
+        <v>23.56927633471471</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.14086734759933</v>
+        <v>22.14086734759915</v>
       </c>
       <c r="C17">
-        <v>29.97798120853004</v>
+        <v>29.9779812085298</v>
       </c>
       <c r="D17">
-        <v>9.014534965000403</v>
+        <v>9.014534965000335</v>
       </c>
       <c r="E17">
-        <v>13.40928963278258</v>
+        <v>13.40928963278255</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>78.04281483230781</v>
+        <v>78.04281483230723</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>23.95249793308145</v>
+        <v>23.95249793308129</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>22.95305338832537</v>
+        <v>22.95305338832526</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.76648730139924</v>
+        <v>21.76648730139916</v>
       </c>
       <c r="C18">
-        <v>29.51785319700632</v>
+        <v>29.51785319700641</v>
       </c>
       <c r="D18">
-        <v>8.877652328789546</v>
+        <v>8.877652328789599</v>
       </c>
       <c r="E18">
-        <v>13.22698458664566</v>
+        <v>13.22698458664567</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>76.98289327969286</v>
+        <v>76.98289327969313</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>23.56806900203085</v>
+        <v>23.56806900203081</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>22.59815720858565</v>
+        <v>22.59815720858562</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.63980786387266</v>
+        <v>21.63980786387247</v>
       </c>
       <c r="C19">
-        <v>29.36185159980468</v>
+        <v>29.36185159980456</v>
       </c>
       <c r="D19">
-        <v>8.831226562681364</v>
+        <v>8.831226562681296</v>
       </c>
       <c r="E19">
-        <v>13.1652481451526</v>
+        <v>13.16524814515251</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>76.62363602283646</v>
+        <v>76.62363602283565</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>23.43785377063451</v>
+        <v>23.43785377063431</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>22.47787255244065</v>
+        <v>22.47787255244052</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.21020707723158</v>
+        <v>22.2102070772318</v>
       </c>
       <c r="C20">
-        <v>30.06305275519078</v>
+        <v>30.06305275519069</v>
       </c>
       <c r="D20">
-        <v>9.039834527911211</v>
+        <v>9.039834527911363</v>
       </c>
       <c r="E20">
-        <v>13.44302900562012</v>
+        <v>13.44302900562015</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>78.23882293847336</v>
+        <v>78.23882293847333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>24.02363315781938</v>
+        <v>24.0236331578195</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>23.01868842040499</v>
+        <v>23.01868842040509</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.14065134464685</v>
+        <v>24.14065134464689</v>
       </c>
       <c r="C21">
-        <v>32.41234974437934</v>
+        <v>32.41234974437921</v>
       </c>
       <c r="D21">
-        <v>9.737502091845233</v>
+        <v>9.737502091845194</v>
       </c>
       <c r="E21">
-        <v>14.4105456299232</v>
+        <v>14.41054562992324</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,13 +1152,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>83.65469148139101</v>
+        <v>83.65469148139078</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>25.99583099743812</v>
+        <v>25.99583099743808</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.42467580205403</v>
+        <v>25.4246758020538</v>
       </c>
       <c r="C22">
-        <v>33.95406454971047</v>
+        <v>33.95406454971043</v>
       </c>
       <c r="D22">
-        <v>10.1943120795953</v>
+        <v>10.19431207959543</v>
       </c>
       <c r="E22">
-        <v>15.08180992957149</v>
+        <v>15.08180992957144</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>87.20882809711458</v>
+        <v>87.20882809711429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>27.29883211635642</v>
+        <v>27.29883211635631</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>26.02827242071069</v>
+        <v>26.02827242071058</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.73642634415083</v>
+        <v>24.73642634415081</v>
       </c>
       <c r="C23">
-        <v>33.12980040507379</v>
+        <v>33.12980040507366</v>
       </c>
       <c r="D23">
-        <v>9.95018431674751</v>
+        <v>9.950184316747482</v>
       </c>
       <c r="E23">
-        <v>14.72321515409622</v>
+        <v>14.72321515409621</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>85.30887476632103</v>
+        <v>85.30887476632135</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>26.60128427284899</v>
+        <v>26.60128427284902</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>25.38937340479854</v>
+        <v>25.38937340479855</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.1788568266998</v>
+        <v>22.17885682670003</v>
       </c>
       <c r="C24">
-        <v>30.02459556670477</v>
+        <v>30.02459556670511</v>
       </c>
       <c r="D24">
-        <v>9.028397999403833</v>
+        <v>9.028397999403859</v>
       </c>
       <c r="E24">
-        <v>13.4277756213347</v>
+        <v>13.42777562133485</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>78.15021457808115</v>
+        <v>78.15021457808213</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>23.99147366033444</v>
+        <v>23.99147366033469</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>22.9890168777118</v>
+        <v>22.98901687771202</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.4459838613062</v>
+        <v>19.44598386130618</v>
       </c>
       <c r="C25">
-        <v>26.63614107131362</v>
+        <v>26.63614107131357</v>
       </c>
       <c r="D25">
-        <v>8.018599065513701</v>
+        <v>8.018599065513738</v>
       </c>
       <c r="E25">
-        <v>12.09354605427116</v>
+        <v>12.09354605427111</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>70.35850379624881</v>
+        <v>70.35850379624856</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>20.3789593046674</v>
+        <v>20.37895930466743</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_54/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.40050782316413</v>
+        <v>17.23320225837357</v>
       </c>
       <c r="C2">
-        <v>24.05551586638631</v>
+        <v>23.95212699883454</v>
       </c>
       <c r="D2">
-        <v>7.246408270586152</v>
+        <v>7.224618791608912</v>
       </c>
       <c r="E2">
-        <v>11.09461840870704</v>
+        <v>11.03917745421136</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.058633954074081</v>
       </c>
       <c r="H2">
-        <v>64.46004138126649</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>64.51085328761475</v>
       </c>
       <c r="J2">
-        <v>19.04050323360065</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.87881915968461</v>
       </c>
       <c r="L2">
-        <v>18.3950540190433</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>18.29568532286913</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.9741153056373</v>
+        <v>15.81810186059831</v>
       </c>
       <c r="C3">
-        <v>22.23511229719196</v>
+        <v>22.14760701010928</v>
       </c>
       <c r="D3">
-        <v>6.699725428299025</v>
+        <v>6.68001359767432</v>
       </c>
       <c r="E3">
-        <v>10.40248382191527</v>
+        <v>10.34390415915372</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.077310796915391</v>
       </c>
       <c r="H3">
-        <v>60.32969450914705</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>60.40954309419221</v>
       </c>
       <c r="J3">
-        <v>17.54335347103255</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17.39153501099004</v>
       </c>
       <c r="L3">
-        <v>16.99614331643814</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>16.90227684528513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.07360648509216</v>
+        <v>14.92495479097419</v>
       </c>
       <c r="C4">
-        <v>21.07767352959822</v>
+        <v>21.0162273131452</v>
       </c>
       <c r="D4">
-        <v>6.351121835904407</v>
+        <v>6.332672498709734</v>
       </c>
       <c r="E4">
-        <v>9.96921261701716</v>
+        <v>9.908221908989686</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.0888079690725</v>
       </c>
       <c r="H4">
-        <v>57.72125816908472</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>57.82005979231349</v>
       </c>
       <c r="J4">
-        <v>16.59348116856707</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.44797263525306</v>
       </c>
       <c r="L4">
-        <v>16.10635284840174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>16.01580227318987</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.69982429186848</v>
+        <v>14.55430181886064</v>
       </c>
       <c r="C5">
-        <v>20.5954896423229</v>
+        <v>20.5575139925817</v>
       </c>
       <c r="D5">
-        <v>6.21235201027578</v>
+        <v>6.199617905173479</v>
       </c>
       <c r="E5">
-        <v>9.790515254845873</v>
+        <v>9.728419011841833</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.093512417082584</v>
       </c>
       <c r="H5">
-        <v>56.63943070094754</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>56.74627569016927</v>
       </c>
       <c r="J5">
-        <v>16.19811929605586</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.05526170630139</v>
       </c>
       <c r="L5">
-        <v>15.73548858830553</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>15.64628102366147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.63733029494696</v>
+        <v>14.49233587882919</v>
       </c>
       <c r="C6">
-        <v>20.51477438962566</v>
+        <v>20.48080804481219</v>
       </c>
       <c r="D6">
-        <v>6.191891831340822</v>
+        <v>6.179264234544913</v>
       </c>
       <c r="E6">
-        <v>9.760713453595837</v>
+        <v>9.698426155098286</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.09429506482641</v>
       </c>
       <c r="H6">
-        <v>56.45864063469184</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>56.5668415679183</v>
       </c>
       <c r="J6">
-        <v>16.13195408341935</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.98954195469191</v>
       </c>
       <c r="L6">
-        <v>15.67339390237588</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>15.5844090314991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.06859386643083</v>
+        <v>14.91998382176427</v>
       </c>
       <c r="C7">
-        <v>21.07121385032999</v>
+        <v>21.01007676602823</v>
       </c>
       <c r="D7">
-        <v>6.349173801944186</v>
+        <v>6.330731395400817</v>
       </c>
       <c r="E7">
-        <v>9.9668113094537</v>
+        <v>9.905806192178224</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.088871322500546</v>
       </c>
       <c r="H7">
-        <v>57.70674532973666</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>57.8056540865972</v>
       </c>
       <c r="J7">
-        <v>16.58818342190933</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.44271029679673</v>
       </c>
       <c r="L7">
-        <v>16.10138534232743</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>16.0108529041923</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.91341710101521</v>
+        <v>16.74992902354905</v>
       </c>
       <c r="C8">
-        <v>23.4357262722422</v>
+        <v>23.33766489234129</v>
       </c>
       <c r="D8">
-        <v>7.060481317241271</v>
+        <v>7.039412856968512</v>
       </c>
       <c r="E8">
-        <v>10.85764277037525</v>
+        <v>10.80121947719547</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.065075292540036</v>
       </c>
       <c r="H8">
-        <v>63.05042516881009</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>63.11103889972699</v>
       </c>
       <c r="J8">
-        <v>18.53026250580398</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.37193762765607</v>
       </c>
       <c r="L8">
-        <v>17.91878420108607</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>17.82133073150622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.36865716207289</v>
+        <v>20.17840030897614</v>
       </c>
       <c r="C9">
-        <v>27.78799158288842</v>
+        <v>27.65349502089806</v>
       </c>
       <c r="D9">
-        <v>8.362351015062803</v>
+        <v>8.335859408563479</v>
       </c>
       <c r="E9">
-        <v>12.54468783920218</v>
+        <v>12.49340931513046</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.017999345353756</v>
       </c>
       <c r="H9">
-        <v>73.0028324507639</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>72.99538086957834</v>
       </c>
       <c r="J9">
-        <v>22.12742475256239</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>21.94510606366266</v>
       </c>
       <c r="L9">
-        <v>21.26535859576362</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>21.15337752329137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.86770644642705</v>
+        <v>22.65765039393926</v>
       </c>
       <c r="C10">
-        <v>30.86737981514139</v>
+        <v>30.70729051461687</v>
       </c>
       <c r="D10">
-        <v>9.278909300224848</v>
+        <v>9.247934792152066</v>
       </c>
       <c r="E10">
-        <v>13.76250775567918</v>
+        <v>13.72353588214406</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.982021150896144</v>
       </c>
       <c r="H10">
-        <v>80.09254771931988</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>80.03614877590933</v>
       </c>
       <c r="J10">
-        <v>24.69713824037639</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>24.49656574381881</v>
       </c>
       <c r="L10">
-        <v>23.63956452533092</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>23.51539972910516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.01453630401016</v>
+        <v>23.79495069098137</v>
       </c>
       <c r="C11">
-        <v>32.26001355724955</v>
+        <v>32.08799136467601</v>
       </c>
       <c r="D11">
-        <v>9.692320608224639</v>
+        <v>9.659079373371229</v>
       </c>
       <c r="E11">
-        <v>14.3440924088654</v>
+        <v>14.32967503174222</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.964998219555507</v>
       </c>
       <c r="H11">
-        <v>83.30343514911115</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>83.22398007970082</v>
       </c>
       <c r="J11">
-        <v>25.86747328166975</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>25.65801778760554</v>
       </c>
       <c r="L11">
-        <v>24.71602601541862</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>24.58565091168321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.45239064286663</v>
+        <v>24.22906012629777</v>
       </c>
       <c r="C12">
-        <v>32.78820886135644</v>
+        <v>32.6115617460254</v>
       </c>
       <c r="D12">
-        <v>9.848944378273323</v>
+        <v>9.814796460555286</v>
       </c>
       <c r="E12">
-        <v>14.57440984509777</v>
+        <v>14.55901811683792</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.958416964056217</v>
       </c>
       <c r="H12">
-        <v>84.52131928093732</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>84.43289457570678</v>
       </c>
       <c r="J12">
-        <v>26.31282307385928</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>26.09986448242732</v>
       </c>
       <c r="L12">
-        <v>25.12483006620301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>24.99196223702243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.35789061002008</v>
+        <v>24.13537393181563</v>
       </c>
       <c r="C13">
-        <v>32.67437646815686</v>
+        <v>32.49873142656701</v>
       </c>
       <c r="D13">
-        <v>9.815198165561293</v>
+        <v>9.781247991210446</v>
       </c>
       <c r="E13">
-        <v>14.52479650767033</v>
+        <v>14.50961813409778</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.959841145442193</v>
       </c>
       <c r="H13">
-        <v>84.25885872595245</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>84.17237894788198</v>
       </c>
       <c r="J13">
-        <v>26.21677445915335</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>26.00457766715268</v>
       </c>
       <c r="L13">
-        <v>25.03670221046927</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>24.90437844223509</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.05047258226455</v>
+        <v>23.83058204370285</v>
       </c>
       <c r="C14">
-        <v>32.30343797589902</v>
+        <v>32.13103787180273</v>
       </c>
       <c r="D14">
-        <v>9.70520069320623</v>
+        <v>9.671885947442499</v>
       </c>
       <c r="E14">
-        <v>14.36303760474295</v>
+        <v>14.34854160752525</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.96445975991338</v>
       </c>
       <c r="H14">
-        <v>83.40356339521617</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>83.32337606798244</v>
       </c>
       <c r="J14">
-        <v>25.90405551160567</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>25.69431501216599</v>
       </c>
       <c r="L14">
-        <v>24.7496235859278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>24.61904655975818</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.86271032664863</v>
+        <v>23.64440839868146</v>
       </c>
       <c r="C15">
-        <v>32.07640658714151</v>
+        <v>31.90597795525423</v>
       </c>
       <c r="D15">
-        <v>9.637853940233684</v>
+        <v>9.604921541366719</v>
       </c>
       <c r="E15">
-        <v>14.26396841034635</v>
+        <v>14.24988059039242</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.967269790049771</v>
       </c>
       <c r="H15">
-        <v>82.88007199067778</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>82.80370333064423</v>
       </c>
       <c r="J15">
-        <v>25.71285750022259</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>25.50460135449261</v>
       </c>
       <c r="L15">
-        <v>24.57399094802698</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>24.44446381603973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.79312811828714</v>
+        <v>22.5836796213985</v>
       </c>
       <c r="C16">
-        <v>30.77636168654767</v>
+        <v>30.61704137724887</v>
       </c>
       <c r="D16">
-        <v>9.2518667688741</v>
+        <v>9.221034628478114</v>
       </c>
       <c r="E16">
-        <v>13.72631340298498</v>
+        <v>13.68384854406589</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.983117224548948</v>
       </c>
       <c r="H16">
-        <v>79.88273864502912</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>79.82782090970476</v>
       </c>
       <c r="J16">
-        <v>24.62083716478023</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>24.42082923955027</v>
       </c>
       <c r="L16">
-        <v>23.56927633471471</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>23.44550053214336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.14086734759915</v>
+        <v>21.93667956080483</v>
       </c>
       <c r="C17">
-        <v>29.9779812085298</v>
+        <v>29.82536179700016</v>
       </c>
       <c r="D17">
-        <v>9.014534965000335</v>
+        <v>8.98492378314117</v>
       </c>
       <c r="E17">
-        <v>13.40928963278255</v>
+        <v>13.35912552172032</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.9926456411518</v>
       </c>
       <c r="H17">
-        <v>78.04281483230723</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>78.00077870094221</v>
       </c>
       <c r="J17">
-        <v>23.95249793308129</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>23.75736823438596</v>
       </c>
       <c r="L17">
-        <v>22.95305338832526</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>22.83260828555367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.76648730139916</v>
+        <v>21.5652807921064</v>
       </c>
       <c r="C18">
-        <v>29.51785319700641</v>
+        <v>29.36906543120686</v>
       </c>
       <c r="D18">
-        <v>8.877652328789599</v>
+        <v>8.848723222656135</v>
       </c>
       <c r="E18">
-        <v>13.22698458664567</v>
+        <v>13.17666626216262</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.998067368892405</v>
       </c>
       <c r="H18">
-        <v>76.98289327969313</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>76.94820149905314</v>
       </c>
       <c r="J18">
-        <v>23.56806900203081</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>23.37569492168798</v>
       </c>
       <c r="L18">
-        <v>22.59815720858562</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>22.47956849838996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.63980786387247</v>
+        <v>21.43960462021365</v>
       </c>
       <c r="C19">
-        <v>29.36185159980456</v>
+        <v>29.21435891247424</v>
       </c>
       <c r="D19">
-        <v>8.831226562681296</v>
+        <v>8.80252530611387</v>
       </c>
       <c r="E19">
-        <v>13.16524814515251</v>
+        <v>13.11486787005346</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.999894033569343</v>
       </c>
       <c r="H19">
-        <v>76.62363602283565</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>76.59142289161954</v>
       </c>
       <c r="J19">
-        <v>23.43785377063431</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>23.24640544309654</v>
       </c>
       <c r="L19">
-        <v>22.47787255244052</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>22.35990327653143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.2102070772318</v>
+        <v>22.00546425906062</v>
       </c>
       <c r="C20">
-        <v>30.06305275519069</v>
+        <v>29.9097227501239</v>
       </c>
       <c r="D20">
-        <v>9.039834527911363</v>
+        <v>9.010095555363471</v>
       </c>
       <c r="E20">
-        <v>13.44302900562015</v>
+        <v>13.39288873243987</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.991637664133944</v>
       </c>
       <c r="H20">
-        <v>78.23882293847333</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>78.19542300869105</v>
       </c>
       <c r="J20">
-        <v>24.0236331578195</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>23.82798969723934</v>
       </c>
       <c r="L20">
-        <v>23.01868842040509</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>22.89789516743536</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.14065134464689</v>
+        <v>23.9199937544422</v>
       </c>
       <c r="C21">
-        <v>32.41234974437921</v>
+        <v>32.23900003938786</v>
       </c>
       <c r="D21">
-        <v>9.737502091845194</v>
+        <v>9.704002175418076</v>
       </c>
       <c r="E21">
-        <v>14.41054562992324</v>
+        <v>14.39585129375016</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.963107212494685</v>
       </c>
       <c r="H21">
-        <v>83.65469148139078</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>83.57266363362699</v>
       </c>
       <c r="J21">
-        <v>25.99583099743808</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>25.78537336932141</v>
       </c>
       <c r="L21">
-        <v>24.83389772781521</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>24.70281192683758</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.4246758020538</v>
+        <v>25.1927733310541</v>
       </c>
       <c r="C22">
-        <v>33.95406454971043</v>
+        <v>33.76696145566038</v>
       </c>
       <c r="D22">
-        <v>10.19431207959543</v>
+        <v>10.15805950395343</v>
       </c>
       <c r="E22">
-        <v>15.08180992957144</v>
+        <v>15.06411944812304</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.94364476410167</v>
       </c>
       <c r="H22">
-        <v>87.20882809711429</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>87.10006316321949</v>
       </c>
       <c r="J22">
-        <v>27.29883211635631</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>27.07783483970484</v>
       </c>
       <c r="L22">
-        <v>26.02827242071058</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>25.88960015989776</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.73642634415081</v>
+        <v>24.51063013605935</v>
       </c>
       <c r="C23">
-        <v>33.12980040507366</v>
+        <v>32.95012735711237</v>
       </c>
       <c r="D23">
-        <v>9.950184316747482</v>
+        <v>9.915435004429133</v>
       </c>
       <c r="E23">
-        <v>14.72321515409621</v>
+        <v>14.70717170724057</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.954123909231273</v>
       </c>
       <c r="H23">
-        <v>85.30887476632135</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>85.21457217116949</v>
       </c>
       <c r="J23">
-        <v>26.60128427284902</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>26.38601604688448</v>
       </c>
       <c r="L23">
-        <v>25.38937340479855</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>25.2548495452948</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.17885682670003</v>
+        <v>21.97436506846302</v>
       </c>
       <c r="C24">
-        <v>30.02459556670511</v>
+        <v>29.87158688123921</v>
       </c>
       <c r="D24">
-        <v>9.028397999403859</v>
+        <v>8.998716861840627</v>
       </c>
       <c r="E24">
-        <v>13.42777562133485</v>
+        <v>13.37762475306056</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.992093542972213</v>
       </c>
       <c r="H24">
-        <v>78.15021457808213</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>78.10743140427792</v>
       </c>
       <c r="J24">
-        <v>23.99147366033469</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>23.79606262006672</v>
       </c>
       <c r="L24">
-        <v>22.98901687771202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>22.86838120248019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.44598386130618</v>
+        <v>19.26285846778566</v>
       </c>
       <c r="C25">
-        <v>26.63614107131357</v>
+        <v>26.51114130631548</v>
       </c>
       <c r="D25">
-        <v>8.018599065513738</v>
+        <v>7.99363181204663</v>
       </c>
       <c r="E25">
-        <v>12.09354605427111</v>
+        <v>12.04129323727175</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.030881144574174</v>
       </c>
       <c r="H25">
-        <v>70.35850379624856</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>70.36900453310993</v>
       </c>
       <c r="J25">
-        <v>21.17190363785712</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>20.99606858108305</v>
       </c>
       <c r="L25">
-        <v>20.37895930466743</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>20.27108789915782</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_54/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.23320225837357</v>
+        <v>17.94203860050441</v>
       </c>
       <c r="C2">
-        <v>23.95212699883454</v>
+        <v>11.80171089612112</v>
       </c>
       <c r="D2">
-        <v>7.224618791608912</v>
+        <v>7.20053085093303</v>
       </c>
       <c r="E2">
-        <v>11.03917745421136</v>
+        <v>12.64005049399649</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.058633954074081</v>
+        <v>2.065262613274712</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>64.51085328761475</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.87881915968461</v>
+        <v>15.76067139127869</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.29568532286913</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>16.85523475737483</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>63.85602583031316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.81810186059831</v>
+        <v>16.54143326967052</v>
       </c>
       <c r="C3">
-        <v>22.14760701010928</v>
+        <v>10.85881003021103</v>
       </c>
       <c r="D3">
-        <v>6.68001359767432</v>
+        <v>6.66622316890256</v>
       </c>
       <c r="E3">
-        <v>10.34390415915372</v>
+        <v>11.8438352824331</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.077310796915391</v>
+        <v>2.081462956441654</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>60.40954309419221</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.39153501099004</v>
+        <v>14.54633326530642</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.90227684528513</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>15.60506271791909</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>59.85234143741275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.92495479097419</v>
+        <v>15.65038140551849</v>
       </c>
       <c r="C4">
-        <v>21.0162273131452</v>
+        <v>10.26186782222167</v>
       </c>
       <c r="D4">
-        <v>6.332672498709734</v>
+        <v>6.324312176350255</v>
       </c>
       <c r="E4">
-        <v>9.908221908989686</v>
+        <v>11.34310627782333</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.0888079690725</v>
+        <v>2.091482202807946</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>57.82005979231349</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.44797263525306</v>
+        <v>13.77355587450867</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.01580227318987</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>14.80733445455158</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>57.32356316186602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.55430181886064</v>
+        <v>15.27905773964864</v>
       </c>
       <c r="C5">
-        <v>20.5575139925817</v>
+        <v>10.01371346487736</v>
       </c>
       <c r="D5">
-        <v>6.199617905173479</v>
+        <v>6.195136056181794</v>
       </c>
       <c r="E5">
-        <v>9.728419011841833</v>
+        <v>11.13605614677877</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.093512417082584</v>
+        <v>2.095591655544453</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>56.74627569016927</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.05526170630139</v>
+        <v>13.45141173909021</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.64628102366147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>14.474318453957</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>56.27498718590304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.49233587882919</v>
+        <v>15.21689318075513</v>
       </c>
       <c r="C6">
-        <v>20.48080804481219</v>
+        <v>9.972201953902998</v>
       </c>
       <c r="D6">
-        <v>6.179264234544913</v>
+        <v>6.17502877013373</v>
       </c>
       <c r="E6">
-        <v>9.698426155098286</v>
+        <v>11.10149509735528</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.09429506482641</v>
+        <v>2.096275854658086</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>56.5668415679183</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.98954195469191</v>
+        <v>13.39747240367895</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.5844090314991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14.41853234285476</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>56.09977482477328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.91998382176427</v>
+        <v>15.64540734157442</v>
       </c>
       <c r="C7">
-        <v>21.01007676602823</v>
+        <v>10.25854140498338</v>
       </c>
       <c r="D7">
-        <v>6.330731395400817</v>
+        <v>6.322399119479408</v>
       </c>
       <c r="E7">
-        <v>9.905806192178224</v>
+        <v>11.3403260517927</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.088871322500546</v>
+        <v>2.091537506591641</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>57.8056540865972</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.44271029679673</v>
+        <v>13.76924109899733</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.0108529041923</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>14.80287586194469</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>57.30949517198393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.74992902354905</v>
+        <v>17.46529943251475</v>
       </c>
       <c r="C8">
-        <v>23.33766489234129</v>
+        <v>11.48009648754678</v>
       </c>
       <c r="D8">
-        <v>7.039412856968512</v>
+        <v>7.019086811115047</v>
       </c>
       <c r="E8">
-        <v>10.80121947719547</v>
+        <v>12.36794408334638</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.065075292540036</v>
+        <v>2.070838908137132</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>63.11103889972699</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.37193762765607</v>
+        <v>15.34735072567494</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.82133073150622</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>16.43019431708144</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>62.48989360074334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.17840030897614</v>
+        <v>20.80928536569962</v>
       </c>
       <c r="C9">
-        <v>27.65349502089806</v>
+        <v>13.7523279452494</v>
       </c>
       <c r="D9">
-        <v>8.335859408563479</v>
+        <v>8.282636249555079</v>
       </c>
       <c r="E9">
-        <v>12.49340931513046</v>
+        <v>14.29340647885187</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.017999345353756</v>
+        <v>2.030375437671316</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>72.99538086957834</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.94510606366266</v>
+        <v>18.24745497407309</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.15337752329137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>19.40145239993844</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>72.1201215462969</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.65765039393926</v>
+        <v>23.16655318099472</v>
       </c>
       <c r="C10">
-        <v>30.70729051461687</v>
+        <v>15.3797469246739</v>
       </c>
       <c r="D10">
-        <v>9.247934792152066</v>
+        <v>9.16037353798465</v>
       </c>
       <c r="E10">
-        <v>13.72353588214406</v>
+        <v>15.66493017147611</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.982021150896144</v>
+        <v>1.999964065884998</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>80.03614877590933</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>24.49656574381881</v>
+        <v>20.29494026787459</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.51539972910516</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>21.48245555871033</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>78.94106016761215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.79495069098137</v>
+        <v>24.22839448847986</v>
       </c>
       <c r="C11">
-        <v>32.08799136467601</v>
+        <v>16.12067423907013</v>
       </c>
       <c r="D11">
-        <v>9.659079373371229</v>
+        <v>9.552128751927585</v>
       </c>
       <c r="E11">
-        <v>14.32967503174222</v>
+        <v>16.28389759694347</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.964998219555507</v>
+        <v>1.985757728584802</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>83.22398007970082</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.65801778760554</v>
+        <v>21.21860355634536</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.58565091168321</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>22.41631034878481</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>82.01229150949422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.22906012629777</v>
+        <v>24.63018836912658</v>
       </c>
       <c r="C12">
-        <v>32.6115617460254</v>
+        <v>16.4023893345885</v>
       </c>
       <c r="D12">
-        <v>9.814796460555286</v>
+        <v>9.699762302234875</v>
       </c>
       <c r="E12">
-        <v>14.55901811683792</v>
+        <v>16.52341283463123</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.958416964056217</v>
+        <v>1.980300263885831</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>84.43289457570678</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.09986448242732</v>
+        <v>21.56837324684851</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.99196223702243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>22.76910269561573</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>83.17346517459268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.13537393181563</v>
+        <v>24.54364579281771</v>
       </c>
       <c r="C13">
-        <v>32.49873142656701</v>
+        <v>16.34164645568143</v>
       </c>
       <c r="D13">
-        <v>9.781247991210446</v>
+        <v>9.667991790151817</v>
       </c>
       <c r="E13">
-        <v>14.50961813409778</v>
+        <v>16.46893566729798</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.959841145442193</v>
+        <v>1.981479542604123</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>84.17237894788198</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.00457766715268</v>
+        <v>21.4930234203218</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.90437844223509</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>22.693141161735</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>82.92341548712757</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.83058204370285</v>
+        <v>24.26144837267573</v>
       </c>
       <c r="C14">
-        <v>32.13103787180273</v>
+        <v>16.14382122454068</v>
       </c>
       <c r="D14">
-        <v>9.671885947442499</v>
+        <v>9.56428657408579</v>
       </c>
       <c r="E14">
-        <v>14.34854160752525</v>
+        <v>16.30316579256384</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.96445975991338</v>
+        <v>1.985310460969227</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>83.32337606798244</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>25.69431501216599</v>
+        <v>21.24737198472335</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.61904655975818</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>22.44534495373308</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>82.10784037570487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.64440839868146</v>
+        <v>24.08859588305034</v>
       </c>
       <c r="C15">
-        <v>31.90597795525423</v>
+        <v>16.02283210225466</v>
       </c>
       <c r="D15">
-        <v>9.604921541366719</v>
+        <v>9.500683339068653</v>
       </c>
       <c r="E15">
-        <v>14.24988059039242</v>
+        <v>16.20240288916556</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.967269790049771</v>
+        <v>1.987646046669701</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>82.80370333064423</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>25.50460135449261</v>
+        <v>21.09694089749441</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24.44446381603973</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>22.29348742485771</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>81.60813200406608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.5836796213985</v>
+        <v>23.0970447674542</v>
       </c>
       <c r="C16">
-        <v>30.61704137724887</v>
+        <v>15.33142218641972</v>
       </c>
       <c r="D16">
-        <v>9.221034628478114</v>
+        <v>9.13464934828211</v>
       </c>
       <c r="E16">
-        <v>13.68384854406589</v>
+        <v>15.62442103464285</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.983117224548948</v>
+        <v>2.000883049742567</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>79.82782090970476</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>24.42082923955027</v>
+        <v>20.23450990869208</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.44550053214336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>21.42124868758564</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>78.73992624283429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.93667956080483</v>
+        <v>22.48684329174349</v>
       </c>
       <c r="C17">
-        <v>29.82536179700016</v>
+        <v>14.90809333448768</v>
       </c>
       <c r="D17">
-        <v>8.98492378314117</v>
+        <v>8.908406095602624</v>
       </c>
       <c r="E17">
-        <v>13.35912552172032</v>
+        <v>15.2689074210138</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.9926456411518</v>
+        <v>2.008892696218799</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>78.00077870094221</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.75736823438596</v>
+        <v>19.70416352679932</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.83260828555367</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>20.88352110778887</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>76.97397238658858</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.5652807921064</v>
+        <v>22.13479712735303</v>
       </c>
       <c r="C18">
-        <v>29.36906543120686</v>
+        <v>14.66458691419013</v>
       </c>
       <c r="D18">
-        <v>8.848723222656135</v>
+        <v>8.777541775176568</v>
       </c>
       <c r="E18">
-        <v>13.17666626216262</v>
+        <v>15.06392036360611</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.998067368892405</v>
+        <v>2.013466365942545</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>76.94820149905314</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>23.37569492168798</v>
+        <v>19.39831313939037</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.47956849838996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>20.572957318686</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>75.95506202490554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.43960462021365</v>
+        <v>22.01538365161384</v>
       </c>
       <c r="C19">
-        <v>29.21435891247424</v>
+        <v>14.5821084630906</v>
       </c>
       <c r="D19">
-        <v>8.80252530611387</v>
+        <v>8.733097234951392</v>
       </c>
       <c r="E19">
-        <v>13.11486787005346</v>
+        <v>14.99441499498773</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.999894033569343</v>
+        <v>2.015009866965127</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>76.59142289161954</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>23.24640544309654</v>
+        <v>19.29458875171468</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.35990327653143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>20.46755958416884</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>75.60945942284576</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.00546425906062</v>
+        <v>22.55190366195335</v>
       </c>
       <c r="C20">
-        <v>29.9097227501239</v>
+        <v>14.95315253150953</v>
       </c>
       <c r="D20">
-        <v>9.010095555363471</v>
+        <v>8.932563771199723</v>
       </c>
       <c r="E20">
-        <v>13.39288873243987</v>
+        <v>15.30680140972217</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.991637664133944</v>
+        <v>2.008043656343544</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>78.19542300869105</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.82798969723934</v>
+        <v>19.76069633001892</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.89789516743536</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>20.94088878640665</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>77.1622730619649</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.9199937544422</v>
+        <v>24.34433366731944</v>
       </c>
       <c r="C21">
-        <v>32.23900003938786</v>
+        <v>16.201886557576</v>
       </c>
       <c r="D21">
-        <v>9.704002175418076</v>
+        <v>9.59476336215582</v>
       </c>
       <c r="E21">
-        <v>14.39585129375016</v>
+        <v>16.35148156242526</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.963107212494685</v>
+        <v>1.98418756438152</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>83.57266363362699</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>25.78537336932141</v>
+        <v>21.31951555677214</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.70281192683758</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>22.51814222419085</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>82.34741879441304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.1927733310541</v>
+        <v>25.51482921726158</v>
       </c>
       <c r="C22">
-        <v>33.76696145566038</v>
+        <v>17.02536450299062</v>
       </c>
       <c r="D22">
-        <v>10.15805950395343</v>
+        <v>10.0236184839177</v>
       </c>
       <c r="E22">
-        <v>15.06411944812304</v>
+        <v>17.07876385875876</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.94364476410167</v>
+        <v>1.968126384489861</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>87.10006316321949</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.07783483970484</v>
+        <v>22.33902156717172</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.88960015989776</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>23.54474511969496</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>85.72739266554535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.51063013605935</v>
+        <v>24.88971794519138</v>
       </c>
       <c r="C23">
-        <v>32.95012735711237</v>
+        <v>16.58476235111532</v>
       </c>
       <c r="D23">
-        <v>9.915435004429133</v>
+        <v>9.794943939036983</v>
       </c>
       <c r="E23">
-        <v>14.70717170724057</v>
+        <v>16.68662510729279</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.954123909231273</v>
+        <v>1.976751288764756</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>85.21457217116949</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>26.38601604688448</v>
+        <v>21.79438027254113</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>25.2548495452948</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>22.99681356567282</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>83.92312852997318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.97436506846302</v>
+        <v>22.52249379658005</v>
       </c>
       <c r="C24">
-        <v>29.87158688123921</v>
+        <v>14.93278174632449</v>
       </c>
       <c r="D24">
-        <v>8.998716861840627</v>
+        <v>8.921644585893652</v>
       </c>
       <c r="E24">
-        <v>13.37762475306056</v>
+        <v>15.2896714360569</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.992093542972213</v>
+        <v>2.008427602647315</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>78.10743140427792</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.79606262006672</v>
+        <v>19.73514088009256</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.86838120248019</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>20.91495734493915</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>77.07715385852431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.26285846778566</v>
+        <v>19.92529336411763</v>
       </c>
       <c r="C25">
-        <v>26.51114130631548</v>
+        <v>13.14777633000323</v>
       </c>
       <c r="D25">
-        <v>7.99363181204663</v>
+        <v>7.950690695614025</v>
       </c>
       <c r="E25">
-        <v>12.04129323727175</v>
+        <v>13.78122800790355</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.030881144574174</v>
+        <v>2.041378032690442</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>70.36900453310993</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>20.99606858108305</v>
+        <v>17.48046671142418</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.27108789915782</v>
+        <v>18.61823095549823</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>69.56585946747704</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_54/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.94203860050441</v>
+        <v>11.87485132182425</v>
       </c>
       <c r="C2">
-        <v>11.80171089612112</v>
+        <v>13.17418522552316</v>
       </c>
       <c r="D2">
-        <v>7.20053085093303</v>
+        <v>6.884780306183973</v>
       </c>
       <c r="E2">
-        <v>12.64005049399649</v>
+        <v>4.374975637908463</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.065262613274712</v>
+        <v>2.15655689932044</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>65.89388833237632</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.76067139127869</v>
+        <v>12.65674918306289</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.83539270432132</v>
       </c>
       <c r="M2">
-        <v>16.85523475737483</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>63.85602583031316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.54143326967052</v>
+        <v>11.28466435590962</v>
       </c>
       <c r="C3">
-        <v>10.85881003021103</v>
+        <v>12.30995995367087</v>
       </c>
       <c r="D3">
-        <v>6.66622316890256</v>
+        <v>6.401141067898716</v>
       </c>
       <c r="E3">
-        <v>11.8438352824331</v>
+        <v>4.413561464990776</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.081462956441654</v>
+        <v>2.170388547113315</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>62.30938202984117</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.54633326530642</v>
+        <v>12.06228106342266</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.610003665589701</v>
       </c>
       <c r="M3">
-        <v>15.60506271791909</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>59.85234143741275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.65038140551849</v>
+        <v>10.93543293191046</v>
       </c>
       <c r="C4">
-        <v>10.26186782222167</v>
+        <v>11.75968750783288</v>
       </c>
       <c r="D4">
-        <v>6.324312176350255</v>
+        <v>6.133272776895493</v>
       </c>
       <c r="E4">
-        <v>11.34310627782333</v>
+        <v>4.440317744254124</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.091482202807946</v>
+        <v>2.178998959751797</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>60.04300462267474</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.77355587450867</v>
+        <v>11.70308166534601</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.474819793791329</v>
       </c>
       <c r="M4">
-        <v>14.80733445455158</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>57.32356316186602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.27905773964864</v>
+        <v>10.79650968226701</v>
       </c>
       <c r="C5">
-        <v>10.01371346487736</v>
+        <v>11.5305071770107</v>
       </c>
       <c r="D5">
-        <v>6.195136056181794</v>
+        <v>6.022433832672297</v>
       </c>
       <c r="E5">
-        <v>11.13605614677877</v>
+        <v>4.451965888305833</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.095591655544453</v>
+        <v>2.182542572745519</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>59.10308120080931</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.45141173909021</v>
+        <v>11.55825960213664</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.420546993616253</v>
       </c>
       <c r="M5">
-        <v>14.474318453957</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>56.27498718590304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.21689318075513</v>
+        <v>10.77364946084471</v>
       </c>
       <c r="C6">
-        <v>9.972201953902998</v>
+        <v>11.4921543926927</v>
       </c>
       <c r="D6">
-        <v>6.17502877013373</v>
+        <v>6.003929432201742</v>
       </c>
       <c r="E6">
-        <v>11.10149509735528</v>
+        <v>4.45394432596339</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.096275854658086</v>
+        <v>2.183133230824586</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>58.94602645195363</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.39747240367895</v>
+        <v>11.53430932529603</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.411584692063999</v>
       </c>
       <c r="M6">
-        <v>14.41853234285476</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>56.09977482477328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.64540734157442</v>
+        <v>10.93354549814175</v>
       </c>
       <c r="C7">
-        <v>10.25854140498338</v>
+        <v>11.75661667409038</v>
       </c>
       <c r="D7">
-        <v>6.322399119479408</v>
+        <v>6.131784690546117</v>
       </c>
       <c r="E7">
-        <v>11.3403260517927</v>
+        <v>4.440471852082885</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.091537506591641</v>
+        <v>2.179046602763663</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>60.03039443678102</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.76924109899733</v>
+        <v>11.70112209949666</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.474084532106298</v>
       </c>
       <c r="M7">
-        <v>14.80287586194469</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>57.30949517198393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.46529943251475</v>
+        <v>11.66866729405648</v>
       </c>
       <c r="C8">
-        <v>11.48009648754678</v>
+        <v>12.88026021175748</v>
       </c>
       <c r="D8">
-        <v>7.019086811115047</v>
+        <v>6.71510724763528</v>
       </c>
       <c r="E8">
-        <v>12.36794408334638</v>
+        <v>4.387627660557495</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.070838908137132</v>
+        <v>2.161304921014436</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>64.67154749580739</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.34735072567494</v>
+        <v>12.45061638858287</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.757016791832175</v>
       </c>
       <c r="M8">
-        <v>16.43019431708144</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>62.48989360074334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.80928536569962</v>
+        <v>13.57114332654302</v>
       </c>
       <c r="C9">
-        <v>13.7523279452494</v>
+        <v>14.9304176957702</v>
       </c>
       <c r="D9">
-        <v>8.282636249555079</v>
+        <v>7.889345341459538</v>
       </c>
       <c r="E9">
-        <v>14.29340647885187</v>
+        <v>4.309625113294087</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.030375437671316</v>
+        <v>2.127180263955157</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>73.25870417270923</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.24745497407309</v>
+        <v>14.18513924802608</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.337329479814379</v>
       </c>
       <c r="M9">
-        <v>19.40145239993844</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>72.1201215462969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.16655318099472</v>
+        <v>15.1188748943924</v>
       </c>
       <c r="C10">
-        <v>15.3797469246739</v>
+        <v>16.35003697816948</v>
       </c>
       <c r="D10">
-        <v>9.16037353798465</v>
+        <v>8.69308455087064</v>
       </c>
       <c r="E10">
-        <v>15.66493017147611</v>
+        <v>4.270022113321337</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.999964065884998</v>
+        <v>2.102080855913643</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>79.27703140689091</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.29494026787459</v>
+        <v>15.72928606389341</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.780267499507008</v>
       </c>
       <c r="M10">
-        <v>21.48245555871033</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>78.94106016761215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.22839448847986</v>
+        <v>15.81867146700123</v>
       </c>
       <c r="C11">
-        <v>16.12067423907013</v>
+        <v>16.97953221805766</v>
       </c>
       <c r="D11">
-        <v>9.552128751927585</v>
+        <v>9.04787740550335</v>
       </c>
       <c r="E11">
-        <v>16.28389759694347</v>
+        <v>4.25640361834372</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.985757728584802</v>
+        <v>2.090537513939414</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>81.96136043435534</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.21860355634536</v>
+        <v>16.41756264831384</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.985957041409151</v>
       </c>
       <c r="M11">
-        <v>22.41631034878481</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>82.01229150949422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.63018836912658</v>
+        <v>16.08353968851968</v>
       </c>
       <c r="C12">
-        <v>16.4023893345885</v>
+        <v>17.21584325987635</v>
       </c>
       <c r="D12">
-        <v>9.699762302234875</v>
+        <v>9.180865906240433</v>
       </c>
       <c r="E12">
-        <v>16.52341283463123</v>
+        <v>4.251933962163812</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.980300263885831</v>
+        <v>2.086136170905503</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>82.97129864682819</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.56837324684851</v>
+        <v>16.67661273684618</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.064529229989921</v>
       </c>
       <c r="M12">
-        <v>22.76910269561573</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>83.17346517459268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.54364579281771</v>
+        <v>16.02649230059445</v>
       </c>
       <c r="C13">
-        <v>16.34164645568143</v>
+        <v>17.16503612777088</v>
       </c>
       <c r="D13">
-        <v>9.667991790151817</v>
+        <v>9.15228166310294</v>
       </c>
       <c r="E13">
-        <v>16.46893566729798</v>
+        <v>4.252865041180055</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.981479542604123</v>
+        <v>2.087085635795471</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>82.75406080258354</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.4930234203218</v>
+        <v>16.62088401936665</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.047575386570156</v>
       </c>
       <c r="M13">
-        <v>22.693141161735</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>82.92341548712757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.26144837267573</v>
+        <v>15.84046171756403</v>
       </c>
       <c r="C14">
-        <v>16.14382122454068</v>
+        <v>16.99901322005237</v>
       </c>
       <c r="D14">
-        <v>9.56428657408579</v>
+        <v>9.058844553646411</v>
       </c>
       <c r="E14">
-        <v>16.30316579256384</v>
+        <v>4.256021774726794</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.985310460969227</v>
+        <v>2.090176093941252</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>82.0445725473559</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.24737198472335</v>
+        <v>16.43890372250813</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.992406993819621</v>
       </c>
       <c r="M14">
-        <v>22.44534495373308</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>82.10784037570487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.08859588305034</v>
+        <v>15.7265122099186</v>
       </c>
       <c r="C15">
-        <v>16.02283210225466</v>
+        <v>16.89705987353822</v>
       </c>
       <c r="D15">
-        <v>9.500683339068653</v>
+        <v>9.001440330483931</v>
       </c>
       <c r="E15">
-        <v>16.20240288916556</v>
+        <v>4.258046662626991</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.987646046669701</v>
+        <v>2.092064768028234</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>81.60917505085222</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.09694089749441</v>
+        <v>16.3272439928167</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.958706434895044</v>
       </c>
       <c r="M15">
-        <v>22.29348742485771</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>81.60813200406608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.0970447674542</v>
+        <v>15.07309430338132</v>
       </c>
       <c r="C16">
-        <v>15.33142218641972</v>
+        <v>16.30859233024118</v>
       </c>
       <c r="D16">
-        <v>9.13464934828211</v>
+        <v>8.669695867921577</v>
       </c>
       <c r="E16">
-        <v>15.62442103464285</v>
+        <v>4.271005112597911</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.000883049742567</v>
+        <v>2.10283173166505</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>79.10061815805787</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.23450990869208</v>
+        <v>15.68405718808087</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.766915683732002</v>
       </c>
       <c r="M16">
-        <v>21.42124868758564</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>78.73992624283429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.48684329174349</v>
+        <v>14.67145732708478</v>
       </c>
       <c r="C17">
-        <v>14.90809333448768</v>
+        <v>15.94359002671462</v>
       </c>
       <c r="D17">
-        <v>8.908406095602624</v>
+        <v>8.463535037111033</v>
       </c>
       <c r="E17">
-        <v>15.2689074210138</v>
+        <v>4.280117515329292</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.008892696218799</v>
+        <v>2.109396842135259</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>77.54871946291424</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.70416352679932</v>
+        <v>15.28614993271964</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.650379702559521</v>
       </c>
       <c r="M17">
-        <v>20.88352110778887</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>76.97397238658858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.13479712735303</v>
+        <v>14.44000839849188</v>
       </c>
       <c r="C18">
-        <v>14.66458691419013</v>
+        <v>15.73209606071342</v>
       </c>
       <c r="D18">
-        <v>8.777541775176568</v>
+        <v>8.343923901740844</v>
       </c>
       <c r="E18">
-        <v>15.06392036360611</v>
+        <v>4.285768854675913</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.013466365942545</v>
+        <v>2.113161946617274</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>76.65099406670932</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.39831313939037</v>
+        <v>15.05591938932893</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8.583739816807551</v>
       </c>
       <c r="M18">
-        <v>20.572957318686</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>75.95506202490554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.01538365161384</v>
+        <v>14.36155566971609</v>
       </c>
       <c r="C19">
-        <v>14.5821084630906</v>
+        <v>15.66021347396106</v>
       </c>
       <c r="D19">
-        <v>8.733097234951392</v>
+        <v>8.303242837567987</v>
       </c>
       <c r="E19">
-        <v>14.99441499498773</v>
+        <v>4.28775119662467</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.015009866965127</v>
+        <v>2.11443519505401</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>76.34613188420025</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.29458875171468</v>
+        <v>14.97772050128715</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.561241495611936</v>
       </c>
       <c r="M19">
-        <v>20.46755958416884</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>75.60945942284576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.55190366195335</v>
+        <v>14.7142544589815</v>
       </c>
       <c r="C20">
-        <v>14.95315253150953</v>
+        <v>15.98260420386654</v>
       </c>
       <c r="D20">
-        <v>8.932563771199723</v>
+        <v>8.485586807038452</v>
       </c>
       <c r="E20">
-        <v>15.30680140972217</v>
+        <v>4.279104665691327</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.008043656343544</v>
+        <v>2.108699191232981</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>77.71444385481206</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>19.76069633001892</v>
+        <v>15.32864609701475</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.662744468131674</v>
       </c>
       <c r="M20">
-        <v>20.94088878640665</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>77.1622730619649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.34433366731944</v>
+        <v>15.89510245227373</v>
       </c>
       <c r="C21">
-        <v>16.201886557576</v>
+        <v>17.04783166155092</v>
       </c>
       <c r="D21">
-        <v>9.59476336215582</v>
+        <v>9.086324601172496</v>
       </c>
       <c r="E21">
-        <v>16.35148156242526</v>
+        <v>4.255075428488911</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.98418756438152</v>
+        <v>2.089269276755173</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>82.25313392822775</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.31951555677214</v>
+        <v>16.49239472965036</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.008591998563821</v>
       </c>
       <c r="M21">
-        <v>22.51814222419085</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>82.34741879441304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.51482921726158</v>
+        <v>16.6664172245591</v>
       </c>
       <c r="C22">
-        <v>17.02536450299062</v>
+        <v>17.74719869490416</v>
       </c>
       <c r="D22">
-        <v>10.0236184839177</v>
+        <v>9.471107643241702</v>
       </c>
       <c r="E22">
-        <v>17.07876385875876</v>
+        <v>4.243409625497043</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.968126384489861</v>
+        <v>2.076387731445166</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>85.18195808284538</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.33902156717172</v>
+        <v>17.24400931002236</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.238658568577339</v>
       </c>
       <c r="M22">
-        <v>23.54474511969496</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>85.72739266554535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.88971794519138</v>
+        <v>16.2545987619324</v>
       </c>
       <c r="C23">
-        <v>16.58476235111532</v>
+        <v>17.36888805974235</v>
       </c>
       <c r="D23">
-        <v>9.794943939036983</v>
+        <v>9.266385291365172</v>
       </c>
       <c r="E23">
-        <v>16.68662510729279</v>
+        <v>4.249245793460796</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.976751288764756</v>
+        <v>2.083284208879857</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>83.6217618983017</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.79438027254113</v>
+        <v>16.84350499251265</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.115464156260048</v>
       </c>
       <c r="M23">
-        <v>22.99681356567282</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>83.92312852997318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.52249379658005</v>
+        <v>14.69490760025931</v>
       </c>
       <c r="C24">
-        <v>14.93278174632449</v>
+        <v>15.96497105145416</v>
       </c>
       <c r="D24">
-        <v>8.921644585893652</v>
+        <v>8.475620600210663</v>
       </c>
       <c r="E24">
-        <v>15.2896714360569</v>
+        <v>4.27956129421811</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.008427602647315</v>
+        <v>2.109014627187504</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>77.63953712565649</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>19.73514088009256</v>
+        <v>15.30943818749292</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.657153247379432</v>
       </c>
       <c r="M24">
-        <v>20.91495734493915</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>77.07715385852431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.92529336411763</v>
+        <v>12.99478063990154</v>
       </c>
       <c r="C25">
-        <v>13.14777633000323</v>
+        <v>14.39167616716968</v>
       </c>
       <c r="D25">
-        <v>7.950690695614025</v>
+        <v>7.582629352158203</v>
       </c>
       <c r="E25">
-        <v>13.78122800790355</v>
+        <v>4.327785083797334</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.041378032690442</v>
+        <v>2.13638145570942</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>70.98912489247998</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.48046671142418</v>
+        <v>13.60137277185818</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.177557321330966</v>
       </c>
       <c r="M25">
-        <v>18.61823095549823</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>69.56585946747704</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_54/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.87485132182425</v>
+        <v>16.99192363787745</v>
       </c>
       <c r="C2">
-        <v>13.17418522552316</v>
+        <v>9.588926475804714</v>
       </c>
       <c r="D2">
-        <v>6.884780306183973</v>
+        <v>6.089678587015712</v>
       </c>
       <c r="E2">
-        <v>4.374975637908463</v>
+        <v>8.421832092273128</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.15655689932044</v>
+        <v>3.792780885228769</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>65.89388833237632</v>
+        <v>53.44841573213596</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.65674918306289</v>
+        <v>16.52398442845988</v>
       </c>
       <c r="L2">
-        <v>7.83539270432132</v>
+        <v>10.99148378537255</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.28466435590962</v>
+        <v>17.04805167773189</v>
       </c>
       <c r="C3">
-        <v>12.30995995367087</v>
+        <v>9.269217443565825</v>
       </c>
       <c r="D3">
-        <v>6.401141067898716</v>
+        <v>5.988777625279083</v>
       </c>
       <c r="E3">
-        <v>4.413561464990776</v>
+        <v>8.454589143623535</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.170388547113315</v>
+        <v>3.797092921078803</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>62.30938202984117</v>
+        <v>52.13487366483016</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.06228106342266</v>
+        <v>16.51396507898868</v>
       </c>
       <c r="L3">
-        <v>7.610003665589701</v>
+        <v>10.98039752448105</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.93543293191046</v>
+        <v>17.09055948136455</v>
       </c>
       <c r="C4">
-        <v>11.75968750783288</v>
+        <v>9.068974202770647</v>
       </c>
       <c r="D4">
-        <v>6.133272776895493</v>
+        <v>5.927946942972953</v>
       </c>
       <c r="E4">
-        <v>4.440317744254124</v>
+        <v>8.476100966011943</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.178998959751797</v>
+        <v>3.799870706968906</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>60.04300462267474</v>
+        <v>51.30941956897603</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.70308166534601</v>
+        <v>16.51389863532002</v>
       </c>
       <c r="L4">
-        <v>7.474819793791329</v>
+        <v>10.97566550357704</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.79650968226701</v>
+        <v>17.10988986815477</v>
       </c>
       <c r="C5">
-        <v>11.5305071770107</v>
+        <v>8.986503391954839</v>
       </c>
       <c r="D5">
-        <v>6.022433832672297</v>
+        <v>5.903473695809115</v>
       </c>
       <c r="E5">
-        <v>4.451965888305833</v>
+        <v>8.485219459171947</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.182542572745519</v>
+        <v>3.801035559151014</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>59.10308120080931</v>
+        <v>50.96859109882944</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.55825960213664</v>
+        <v>16.51539909903694</v>
       </c>
       <c r="L5">
-        <v>7.420546993616253</v>
+        <v>10.97425966757604</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.77364946084471</v>
+        <v>17.11322049433965</v>
       </c>
       <c r="C6">
-        <v>11.4921543926927</v>
+        <v>8.972760349192011</v>
       </c>
       <c r="D6">
-        <v>6.003929432201742</v>
+        <v>5.899429967697208</v>
       </c>
       <c r="E6">
-        <v>4.45394432596339</v>
+        <v>8.486754867856135</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.183133230824586</v>
+        <v>3.801230972271378</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>58.94602645195363</v>
+        <v>50.91173753452488</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.53430932529603</v>
+        <v>16.51574040190706</v>
       </c>
       <c r="L6">
-        <v>7.411584692063999</v>
+        <v>10.97405780263615</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.93354549814175</v>
+        <v>17.09081206729561</v>
       </c>
       <c r="C7">
-        <v>11.75661667409038</v>
+        <v>9.067865328592237</v>
       </c>
       <c r="D7">
-        <v>6.131784690546117</v>
+        <v>5.927615566000058</v>
       </c>
       <c r="E7">
-        <v>4.440471852082885</v>
+        <v>8.476222514270347</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.179046602763663</v>
+        <v>3.799886283238322</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>60.03039443678102</v>
+        <v>51.30484062658726</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.70112209949666</v>
+        <v>16.51391269075337</v>
       </c>
       <c r="L7">
-        <v>7.474084532106298</v>
+        <v>10.97564442764407</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.66866729405648</v>
+        <v>17.00959824068378</v>
       </c>
       <c r="C8">
-        <v>12.88026021175748</v>
+        <v>9.47957812387066</v>
       </c>
       <c r="D8">
-        <v>6.71510724763528</v>
+        <v>6.054675033962971</v>
       </c>
       <c r="E8">
-        <v>4.387627660557495</v>
+        <v>8.432836686572898</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.161304921014436</v>
+        <v>3.794240745724506</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>64.67154749580739</v>
+        <v>52.99961758327522</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.45061638858287</v>
+        <v>16.51926552827466</v>
       </c>
       <c r="L8">
-        <v>7.757016791832175</v>
+        <v>10.98723110186065</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.57114332654302</v>
+        <v>16.91478334354726</v>
       </c>
       <c r="C9">
-        <v>14.9304176957702</v>
+        <v>10.25087420682343</v>
       </c>
       <c r="D9">
-        <v>7.889345341459538</v>
+        <v>6.311266485829541</v>
       </c>
       <c r="E9">
-        <v>4.309625113294087</v>
+        <v>8.358834584940691</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.127180263955157</v>
+        <v>3.78419602328998</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>73.25870417270923</v>
+        <v>56.1601012236798</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.18513924802608</v>
+        <v>16.57810205317974</v>
       </c>
       <c r="L9">
-        <v>8.337329479814379</v>
+        <v>11.02637351376104</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.1188748943924</v>
+        <v>16.88516557785814</v>
       </c>
       <c r="C10">
-        <v>16.35003697816948</v>
+        <v>10.78982650954</v>
       </c>
       <c r="D10">
-        <v>8.69308455087064</v>
+        <v>6.502333762615102</v>
       </c>
       <c r="E10">
-        <v>4.270022113321337</v>
+        <v>8.311188575822772</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.102080855913643</v>
+        <v>3.777432261616371</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>79.27703140689091</v>
+        <v>58.36710351942627</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.72928606389341</v>
+        <v>16.65077562858725</v>
       </c>
       <c r="L10">
-        <v>8.780267499507008</v>
+        <v>11.06506815057917</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.81867146700123</v>
+        <v>16.88052053548188</v>
       </c>
       <c r="C11">
-        <v>16.97953221805766</v>
+        <v>11.02797484704898</v>
       </c>
       <c r="D11">
-        <v>9.04787740550335</v>
+        <v>6.589398790115232</v>
       </c>
       <c r="E11">
-        <v>4.25640361834372</v>
+        <v>8.290967018922537</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.090537513939414</v>
+        <v>3.77448699170567</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>81.96136043435534</v>
+        <v>59.34323947980054</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.41756264831384</v>
+        <v>16.69019377445483</v>
       </c>
       <c r="L11">
-        <v>8.985957041409151</v>
+        <v>11.08480692707903</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.08353968851968</v>
+        <v>16.88003979603836</v>
       </c>
       <c r="C12">
-        <v>17.21584325987635</v>
+        <v>11.11707299663403</v>
       </c>
       <c r="D12">
-        <v>9.180865906240433</v>
+        <v>6.622356262220112</v>
       </c>
       <c r="E12">
-        <v>4.251933962163812</v>
+        <v>8.283518125982013</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.086136170905503</v>
+        <v>3.773390459954847</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>82.97129864682819</v>
+        <v>59.70865576982073</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.67661273684618</v>
+        <v>16.70602911051486</v>
       </c>
       <c r="L12">
-        <v>9.064529229989921</v>
+        <v>11.09258625547664</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.02649230059445</v>
+        <v>16.88008635898782</v>
       </c>
       <c r="C13">
-        <v>17.16503612777088</v>
+        <v>11.09793338205302</v>
       </c>
       <c r="D13">
-        <v>9.15228166310294</v>
+        <v>6.615259340500244</v>
       </c>
       <c r="E13">
-        <v>4.252865041180055</v>
+        <v>8.285113107429703</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.087085635795471</v>
+        <v>3.773625784849966</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>82.75406080258354</v>
+        <v>59.63014807687244</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.62088401936665</v>
+        <v>16.7025783888015</v>
       </c>
       <c r="L13">
-        <v>9.047575386570156</v>
+        <v>11.09089733063775</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.84046171756403</v>
+        <v>16.8804553223558</v>
       </c>
       <c r="C14">
-        <v>16.99901322005237</v>
+        <v>11.0353271099115</v>
       </c>
       <c r="D14">
-        <v>9.058844553646411</v>
+        <v>6.59211065186288</v>
       </c>
       <c r="E14">
-        <v>4.256021774726794</v>
+        <v>8.290350015862508</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.090176093941252</v>
+        <v>3.77439640387445</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>82.0445725473559</v>
+        <v>59.37338837901832</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.43890372250813</v>
+        <v>16.69147838733378</v>
       </c>
       <c r="L14">
-        <v>8.992406993819621</v>
+        <v>11.08544084640318</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.7265122099186</v>
+        <v>16.88084802066544</v>
       </c>
       <c r="C15">
-        <v>16.89705987353822</v>
+        <v>10.99683582854418</v>
       </c>
       <c r="D15">
-        <v>9.001440330483931</v>
+        <v>6.577928857361555</v>
       </c>
       <c r="E15">
-        <v>4.258046662626991</v>
+        <v>8.293584925652635</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.092064768028234</v>
+        <v>3.774870871404375</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>81.60917505085222</v>
+        <v>59.21555915130906</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.3272439928167</v>
+        <v>16.68479743593699</v>
       </c>
       <c r="L15">
-        <v>8.958706434895044</v>
+        <v>11.08213819055348</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.07309430338132</v>
+        <v>16.88564757163454</v>
       </c>
       <c r="C16">
-        <v>16.30859233024118</v>
+        <v>10.77411514401096</v>
       </c>
       <c r="D16">
-        <v>8.669695867921577</v>
+        <v>6.496643946984809</v>
       </c>
       <c r="E16">
-        <v>4.271005112597911</v>
+        <v>8.312539307265327</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.10283173166505</v>
+        <v>3.777627377586375</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>79.10061815805787</v>
+        <v>58.30273111436897</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.68405718808087</v>
+        <v>16.64832704868005</v>
       </c>
       <c r="L16">
-        <v>8.766915683732002</v>
+        <v>11.06382095572326</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.67145732708478</v>
+        <v>16.89085977003237</v>
       </c>
       <c r="C17">
-        <v>15.94359002671462</v>
+        <v>10.63562924742881</v>
       </c>
       <c r="D17">
-        <v>8.463535037111033</v>
+        <v>6.446791961979165</v>
       </c>
       <c r="E17">
-        <v>4.280117515329292</v>
+        <v>8.324539065510605</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.109396842135259</v>
+        <v>3.779352006888131</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>77.54871946291424</v>
+        <v>57.73544607798561</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.28614993271964</v>
+        <v>16.62757858057792</v>
       </c>
       <c r="L17">
-        <v>8.650379702559521</v>
+        <v>11.05312940638319</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.44000839849188</v>
+        <v>16.8946882153896</v>
       </c>
       <c r="C18">
-        <v>15.73209606071342</v>
+        <v>10.55531853474409</v>
       </c>
       <c r="D18">
-        <v>8.343923901740844</v>
+        <v>6.418134237631505</v>
       </c>
       <c r="E18">
-        <v>4.285768854675913</v>
+        <v>8.331577778207617</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.113161946617274</v>
+        <v>3.780356363512861</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>76.65099406670932</v>
+        <v>57.40655026141709</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.05591938932893</v>
+        <v>16.61624355623809</v>
       </c>
       <c r="L18">
-        <v>8.583739816807551</v>
+        <v>11.04718116859805</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.36155566971609</v>
+        <v>16.89612681323365</v>
       </c>
       <c r="C19">
-        <v>15.66021347396106</v>
+        <v>10.52801619736543</v>
       </c>
       <c r="D19">
-        <v>8.303242837567987</v>
+        <v>6.408434977861009</v>
       </c>
       <c r="E19">
-        <v>4.28775119662467</v>
+        <v>8.333984466388216</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.11443519505401</v>
+        <v>3.780698554777643</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>76.34613188420025</v>
+        <v>57.29475085942634</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.97772050128715</v>
+        <v>16.6125087332057</v>
       </c>
       <c r="L19">
-        <v>8.561241495611936</v>
+        <v>11.04520183579108</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.7142544589815</v>
+        <v>16.89021889803858</v>
       </c>
       <c r="C20">
-        <v>15.98260420386654</v>
+        <v>10.65043989365598</v>
       </c>
       <c r="D20">
-        <v>8.485586807038452</v>
+        <v>6.45209739930025</v>
       </c>
       <c r="E20">
-        <v>4.279104665691327</v>
+        <v>8.323247518234027</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.108699191232981</v>
+        <v>3.779167135326207</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>77.71444385481206</v>
+        <v>57.79610617328593</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.32864609701475</v>
+        <v>16.62972533909387</v>
       </c>
       <c r="L20">
-        <v>8.662744468131674</v>
+        <v>11.05424672789682</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.89510245227373</v>
+        <v>16.88031219578161</v>
       </c>
       <c r="C21">
-        <v>17.04783166155092</v>
+        <v>11.05374603742385</v>
       </c>
       <c r="D21">
-        <v>9.086324601172496</v>
+        <v>6.598910573011112</v>
       </c>
       <c r="E21">
-        <v>4.255075428488911</v>
+        <v>8.28880615102238</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.089269276755173</v>
+        <v>3.774169545918585</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>82.25313392822775</v>
+        <v>59.44892126884119</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.49239472965036</v>
+        <v>16.69471412323</v>
       </c>
       <c r="L21">
-        <v>9.008591998563821</v>
+        <v>11.08703530078447</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.6664172245591</v>
+        <v>16.88129109753505</v>
       </c>
       <c r="C22">
-        <v>17.74719869490416</v>
+        <v>11.31098652569814</v>
       </c>
       <c r="D22">
-        <v>9.471107643241702</v>
+        <v>6.694775977197673</v>
       </c>
       <c r="E22">
-        <v>4.243409625497043</v>
+        <v>8.2675122919647</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.076387731445166</v>
+        <v>3.77101271737315</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>85.18195808284538</v>
+        <v>60.50441436429666</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.24400931002236</v>
+        <v>16.74247994903561</v>
       </c>
       <c r="L22">
-        <v>9.238658568577339</v>
+        <v>11.11023906033841</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.2545987619324</v>
+        <v>16.88008415319282</v>
       </c>
       <c r="C23">
-        <v>17.36888805974235</v>
+        <v>11.17429494419474</v>
       </c>
       <c r="D23">
-        <v>9.266385291365172</v>
+        <v>6.6436293357792</v>
       </c>
       <c r="E23">
-        <v>4.249245793460796</v>
+        <v>8.278766111716401</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.083284208879857</v>
+        <v>3.772687615643249</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>83.6217618983017</v>
+        <v>59.94340774852073</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.84350499251265</v>
+        <v>16.71650453316554</v>
       </c>
       <c r="L23">
-        <v>9.115464156260048</v>
+        <v>11.09769332198977</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.69490760025931</v>
+        <v>16.89050604581875</v>
       </c>
       <c r="C24">
-        <v>15.96497105145416</v>
+        <v>10.64374615438818</v>
       </c>
       <c r="D24">
-        <v>8.475620600210663</v>
+        <v>6.44969879967687</v>
       </c>
       <c r="E24">
-        <v>4.27956129421811</v>
+        <v>8.323830990999507</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.109014627187504</v>
+        <v>3.779250675740939</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>77.63953712565649</v>
+        <v>57.76869031177642</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.30943818749292</v>
+        <v>16.62875294038179</v>
       </c>
       <c r="L24">
-        <v>8.657153247379432</v>
+        <v>11.05374096844289</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.99478063990154</v>
+        <v>16.93345095188701</v>
       </c>
       <c r="C25">
-        <v>14.39167616716968</v>
+        <v>10.04670962531295</v>
       </c>
       <c r="D25">
-        <v>7.582629352158203</v>
+        <v>6.241262184903811</v>
       </c>
       <c r="E25">
-        <v>4.327785083797334</v>
+        <v>8.377671329122037</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.13638145570942</v>
+        <v>3.78680450902469</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>70.98912489247998</v>
+        <v>55.32424663720593</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.60137277185818</v>
+        <v>16.55700636397303</v>
       </c>
       <c r="L25">
-        <v>8.177557321330966</v>
+        <v>11.0140328547552</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_54/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.99192363787745</v>
+        <v>11.87485132182428</v>
       </c>
       <c r="C2">
-        <v>9.588926475804714</v>
+        <v>13.17418522552308</v>
       </c>
       <c r="D2">
-        <v>6.089678587015712</v>
+        <v>6.884780306184024</v>
       </c>
       <c r="E2">
-        <v>8.421832092273128</v>
+        <v>4.374975637908266</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.792780885228769</v>
+        <v>2.156556899320277</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>53.44841573213596</v>
+        <v>65.89388833237599</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.52398442845988</v>
+        <v>12.65674918306292</v>
       </c>
       <c r="L2">
-        <v>10.99148378537255</v>
+        <v>7.83539270432134</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.04805167773189</v>
+        <v>11.28466435590967</v>
       </c>
       <c r="C3">
-        <v>9.269217443565825</v>
+        <v>12.3099599536707</v>
       </c>
       <c r="D3">
-        <v>5.988777625279083</v>
+        <v>6.401141067898718</v>
       </c>
       <c r="E3">
-        <v>8.454589143623535</v>
+        <v>4.413561464990678</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.797092921078803</v>
+        <v>2.170388547113195</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>52.13487366483016</v>
+        <v>62.30938202984123</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.51396507898868</v>
+        <v>12.06228106342265</v>
       </c>
       <c r="L3">
-        <v>10.98039752448105</v>
+        <v>7.610003665589621</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.09055948136455</v>
+        <v>10.93543293191042</v>
       </c>
       <c r="C4">
-        <v>9.068974202770647</v>
+        <v>11.75968750783294</v>
       </c>
       <c r="D4">
-        <v>5.927946942972953</v>
+        <v>6.13327277689552</v>
       </c>
       <c r="E4">
-        <v>8.476100966011943</v>
+        <v>4.440317744254076</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.799870706968906</v>
+        <v>2.178998959751684</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>51.30941956897603</v>
+        <v>60.04300462267524</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.51389863532002</v>
+        <v>11.70308166534599</v>
       </c>
       <c r="L4">
-        <v>10.97566550357704</v>
+        <v>7.474819793791318</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.10988986815477</v>
+        <v>10.79650968226693</v>
       </c>
       <c r="C5">
-        <v>8.986503391954839</v>
+        <v>11.53050717701076</v>
       </c>
       <c r="D5">
-        <v>5.903473695809115</v>
+        <v>6.022433832672315</v>
       </c>
       <c r="E5">
-        <v>8.485219459171947</v>
+        <v>4.451965888306</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.801035559151014</v>
+        <v>2.18254257274564</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>50.96859109882944</v>
+        <v>59.10308120080965</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.51539909903694</v>
+        <v>11.55825960213661</v>
       </c>
       <c r="L5">
-        <v>10.97425966757604</v>
+        <v>7.420546993616347</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.11322049433965</v>
+        <v>10.77364946084468</v>
       </c>
       <c r="C6">
-        <v>8.972760349192011</v>
+        <v>11.49215439269277</v>
       </c>
       <c r="D6">
-        <v>5.899429967697208</v>
+        <v>6.003929432201772</v>
       </c>
       <c r="E6">
-        <v>8.486754867856135</v>
+        <v>4.453944325963356</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.801230972271378</v>
+        <v>2.183133230824754</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>50.91173753452488</v>
+        <v>58.94602645195406</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.51574040190706</v>
+        <v>11.53430932529601</v>
       </c>
       <c r="L6">
-        <v>10.97405780263615</v>
+        <v>7.411584692063991</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.09081206729561</v>
+        <v>10.93354549814171</v>
       </c>
       <c r="C7">
-        <v>9.067865328592237</v>
+        <v>11.75661667409034</v>
       </c>
       <c r="D7">
-        <v>5.927615566000058</v>
+        <v>6.131784690546171</v>
       </c>
       <c r="E7">
-        <v>8.476222514270347</v>
+        <v>4.440471852082826</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.799886283238322</v>
+        <v>2.179046602763667</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>51.30484062658726</v>
+        <v>60.03039443678117</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.51391269075337</v>
+        <v>11.70112209949665</v>
       </c>
       <c r="L7">
-        <v>10.97564442764407</v>
+        <v>7.474084532106373</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.00959824068378</v>
+        <v>11.66866729405658</v>
       </c>
       <c r="C8">
-        <v>9.47957812387066</v>
+        <v>12.88026021175748</v>
       </c>
       <c r="D8">
-        <v>6.054675033962971</v>
+        <v>6.715107247635152</v>
       </c>
       <c r="E8">
-        <v>8.432836686572898</v>
+        <v>4.387627660557566</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.794240745724506</v>
+        <v>2.161304921014689</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>52.99961758327522</v>
+        <v>64.67154749580639</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.51926552827466</v>
+        <v>12.45061638858294</v>
       </c>
       <c r="L8">
-        <v>10.98723110186065</v>
+        <v>7.757016791832197</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.91478334354726</v>
+        <v>13.57114332654306</v>
       </c>
       <c r="C9">
-        <v>10.25087420682343</v>
+        <v>14.93041769577032</v>
       </c>
       <c r="D9">
-        <v>6.311266485829541</v>
+        <v>7.8893453414595</v>
       </c>
       <c r="E9">
-        <v>8.358834584940691</v>
+        <v>4.309625113294061</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.78419602328998</v>
+        <v>2.12718026395551</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>56.1601012236798</v>
+        <v>73.25870417270967</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.57810205317974</v>
+        <v>14.1851392480262</v>
       </c>
       <c r="L9">
-        <v>11.02637351376104</v>
+        <v>8.337329479814313</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.88516557785814</v>
+        <v>15.1188748943925</v>
       </c>
       <c r="C10">
-        <v>10.78982650954</v>
+        <v>16.35003697816945</v>
       </c>
       <c r="D10">
-        <v>6.502333762615102</v>
+        <v>8.693084550870655</v>
       </c>
       <c r="E10">
-        <v>8.311188575822772</v>
+        <v>4.270022113321403</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.777432261616371</v>
+        <v>2.102080855913606</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>58.36710351942627</v>
+        <v>79.27703140689093</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.65077562858725</v>
+        <v>15.72928606389347</v>
       </c>
       <c r="L10">
-        <v>11.06506815057917</v>
+        <v>8.780267499507069</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.88052053548188</v>
+        <v>15.81867146700126</v>
       </c>
       <c r="C11">
-        <v>11.02797484704898</v>
+        <v>16.97953221805766</v>
       </c>
       <c r="D11">
-        <v>6.589398790115232</v>
+        <v>9.047877405503399</v>
       </c>
       <c r="E11">
-        <v>8.290967018922537</v>
+        <v>4.25640361834363</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.77448699170567</v>
+        <v>2.090537513939438</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>59.34323947980054</v>
+        <v>81.96136043435575</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.69019377445483</v>
+        <v>16.41756264831384</v>
       </c>
       <c r="L11">
-        <v>11.08480692707903</v>
+        <v>8.985957041409161</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.88003979603836</v>
+        <v>16.08353968851974</v>
       </c>
       <c r="C12">
-        <v>11.11707299663403</v>
+        <v>17.21584325987621</v>
       </c>
       <c r="D12">
-        <v>6.622356262220112</v>
+        <v>9.180865906240584</v>
       </c>
       <c r="E12">
-        <v>8.283518125982013</v>
+        <v>4.251933962163792</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.773390459954847</v>
+        <v>2.086136170905641</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>59.70865576982073</v>
+        <v>82.97129864682819</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.70602911051486</v>
+        <v>16.67661273684618</v>
       </c>
       <c r="L12">
-        <v>11.09258625547664</v>
+        <v>9.064529229989901</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.88008635898782</v>
+        <v>16.02649230059431</v>
       </c>
       <c r="C13">
-        <v>11.09793338205302</v>
+        <v>17.16503612777073</v>
       </c>
       <c r="D13">
-        <v>6.615259340500244</v>
+        <v>9.152281663102766</v>
       </c>
       <c r="E13">
-        <v>8.285113107429703</v>
+        <v>4.252865041180033</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.773625784849966</v>
+        <v>2.087085635795647</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>59.63014807687244</v>
+        <v>82.75406080258315</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.7025783888015</v>
+        <v>16.62088401936654</v>
       </c>
       <c r="L13">
-        <v>11.09089733063775</v>
+        <v>9.047575386570154</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.8804553223558</v>
+        <v>15.84046171756409</v>
       </c>
       <c r="C14">
-        <v>11.0353271099115</v>
+        <v>16.99901322005243</v>
       </c>
       <c r="D14">
-        <v>6.59211065186288</v>
+        <v>9.058844553646411</v>
       </c>
       <c r="E14">
-        <v>8.290350015862508</v>
+        <v>4.256021774726689</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.77439640387445</v>
+        <v>2.090176093941027</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>59.37338837901832</v>
+        <v>82.04457254735628</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.69147838733378</v>
+        <v>16.4389037225082</v>
       </c>
       <c r="L14">
-        <v>11.08544084640318</v>
+        <v>8.992406993819664</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.88084802066544</v>
+        <v>15.72651220991874</v>
       </c>
       <c r="C15">
-        <v>10.99683582854418</v>
+        <v>16.89705987353837</v>
       </c>
       <c r="D15">
-        <v>6.577928857361555</v>
+        <v>9.001440330483877</v>
       </c>
       <c r="E15">
-        <v>8.293584925652635</v>
+        <v>4.258046662626913</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.774870871404375</v>
+        <v>2.092064768028483</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>59.21555915130906</v>
+        <v>81.60917505085335</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.68479743593699</v>
+        <v>16.32724399281684</v>
       </c>
       <c r="L15">
-        <v>11.08213819055348</v>
+        <v>8.958706434895074</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.88564757163454</v>
+        <v>15.07309430338135</v>
       </c>
       <c r="C16">
-        <v>10.77411514401096</v>
+        <v>16.30859233024104</v>
       </c>
       <c r="D16">
-        <v>6.496643946984809</v>
+        <v>8.669695867921645</v>
       </c>
       <c r="E16">
-        <v>8.312539307265327</v>
+        <v>4.271005112597936</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.777627377586375</v>
+        <v>2.102831731665062</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>58.30273111436897</v>
+        <v>79.10061815805692</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.64832704868005</v>
+        <v>15.68405718808086</v>
       </c>
       <c r="L16">
-        <v>11.06382095572326</v>
+        <v>8.766915683731971</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.89085977003237</v>
+        <v>14.67145732708479</v>
       </c>
       <c r="C17">
-        <v>10.63562924742881</v>
+        <v>15.94359002671454</v>
       </c>
       <c r="D17">
-        <v>6.446791961979165</v>
+        <v>8.463535037110944</v>
       </c>
       <c r="E17">
-        <v>8.324539065510605</v>
+        <v>4.280117515329318</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.779352006888131</v>
+        <v>2.109396842135557</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>57.73544607798561</v>
+        <v>77.54871946291458</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.62757858057792</v>
+        <v>15.2861499327196</v>
       </c>
       <c r="L17">
-        <v>11.05312940638319</v>
+        <v>8.650379702559496</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.8946882153896</v>
+        <v>14.44000839849186</v>
       </c>
       <c r="C18">
-        <v>10.55531853474409</v>
+        <v>15.7320960607136</v>
       </c>
       <c r="D18">
-        <v>6.418134237631505</v>
+        <v>8.343923901740789</v>
       </c>
       <c r="E18">
-        <v>8.331577778207617</v>
+        <v>4.285768854675875</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.780356363512861</v>
+        <v>2.11316194661724</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>57.40655026141709</v>
+        <v>76.65099406670973</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.61624355623809</v>
+        <v>15.05591938932898</v>
       </c>
       <c r="L18">
-        <v>11.04718116859805</v>
+        <v>8.583739816807565</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.89612681323365</v>
+        <v>14.36155566971612</v>
       </c>
       <c r="C19">
-        <v>10.52801619736543</v>
+        <v>15.66021347396106</v>
       </c>
       <c r="D19">
-        <v>6.408434977861009</v>
+        <v>8.303242837567883</v>
       </c>
       <c r="E19">
-        <v>8.333984466388216</v>
+        <v>4.28775119662475</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.780698554777643</v>
+        <v>2.114435195054303</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>57.29475085942634</v>
+        <v>76.34613188420089</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.6125087332057</v>
+        <v>14.97772050128712</v>
       </c>
       <c r="L19">
-        <v>11.04520183579108</v>
+        <v>8.561241495612006</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.89021889803858</v>
+        <v>14.71425445898155</v>
       </c>
       <c r="C20">
-        <v>10.65043989365598</v>
+        <v>15.98260420386656</v>
       </c>
       <c r="D20">
-        <v>6.45209739930025</v>
+        <v>8.485586807038572</v>
       </c>
       <c r="E20">
-        <v>8.323247518234027</v>
+        <v>4.279104665691333</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.779167135326207</v>
+        <v>2.108699191233089</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>57.79610617328593</v>
+        <v>77.71444385481232</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.62972533909387</v>
+        <v>15.32864609701476</v>
       </c>
       <c r="L20">
-        <v>11.05424672789682</v>
+        <v>8.662744468131688</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.88031219578161</v>
+        <v>15.89510245227358</v>
       </c>
       <c r="C21">
-        <v>11.05374603742385</v>
+        <v>17.04783166155079</v>
       </c>
       <c r="D21">
-        <v>6.598910573011112</v>
+        <v>9.086324601172414</v>
       </c>
       <c r="E21">
-        <v>8.28880615102238</v>
+        <v>4.255075428488855</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.774169545918585</v>
+        <v>2.089269276754899</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>59.44892126884119</v>
+        <v>82.25313392822737</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.69471412323</v>
+        <v>16.49239472965023</v>
       </c>
       <c r="L21">
-        <v>11.08703530078447</v>
+        <v>9.008591998563805</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.88129109753505</v>
+        <v>16.66641722455915</v>
       </c>
       <c r="C22">
-        <v>11.31098652569814</v>
+        <v>17.74719869490413</v>
       </c>
       <c r="D22">
-        <v>6.694775977197673</v>
+        <v>9.471107643241588</v>
       </c>
       <c r="E22">
-        <v>8.2675122919647</v>
+        <v>4.243409625497012</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.77101271737315</v>
+        <v>2.076387731445218</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>60.50441436429666</v>
+        <v>85.1819580828449</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.74247994903561</v>
+        <v>17.24400931002239</v>
       </c>
       <c r="L22">
-        <v>11.11023906033841</v>
+        <v>9.238658568577311</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.88008415319282</v>
+        <v>16.2545987619325</v>
       </c>
       <c r="C23">
-        <v>11.17429494419474</v>
+        <v>17.36888805974262</v>
       </c>
       <c r="D23">
-        <v>6.6436293357792</v>
+        <v>9.266385291365239</v>
       </c>
       <c r="E23">
-        <v>8.278766111716401</v>
+        <v>4.249245793460724</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.772687615643249</v>
+        <v>2.083284208880067</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>59.94340774852073</v>
+        <v>83.62176189830348</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.71650453316554</v>
+        <v>16.84350499251284</v>
       </c>
       <c r="L23">
-        <v>11.09769332198977</v>
+        <v>9.11546415626006</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.89050604581875</v>
+        <v>14.69490760025925</v>
       </c>
       <c r="C24">
-        <v>10.64374615438818</v>
+        <v>15.96497105145414</v>
       </c>
       <c r="D24">
-        <v>6.44969879967687</v>
+        <v>8.47562060021065</v>
       </c>
       <c r="E24">
-        <v>8.323830990999507</v>
+        <v>4.279561294218142</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.779250675740939</v>
+        <v>2.109014627187354</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>57.76869031177642</v>
+        <v>77.63953712565697</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.62875294038179</v>
+        <v>15.30943818749288</v>
       </c>
       <c r="L24">
-        <v>11.05374096844289</v>
+        <v>8.65715324737941</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.93345095188701</v>
+        <v>12.99478063990168</v>
       </c>
       <c r="C25">
-        <v>10.04670962531295</v>
+        <v>14.39167616716989</v>
       </c>
       <c r="D25">
-        <v>6.241262184903811</v>
+        <v>7.582629352158277</v>
       </c>
       <c r="E25">
-        <v>8.377671329122037</v>
+        <v>4.327785083797385</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.78680450902469</v>
+        <v>2.136381455709415</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>55.32424663720593</v>
+        <v>70.98912489248148</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.55700636397303</v>
+        <v>13.60137277185833</v>
       </c>
       <c r="L25">
-        <v>11.0140328547552</v>
+        <v>8.177557321331026</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_54/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.87485132182428</v>
+        <v>12.1384621290565</v>
       </c>
       <c r="C2">
-        <v>13.17418522552308</v>
+        <v>8.44311461001926</v>
       </c>
       <c r="D2">
-        <v>6.884780306184024</v>
+        <v>7.088476126883861</v>
       </c>
       <c r="E2">
-        <v>4.374975637908266</v>
+        <v>15.9189402118258</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.156556899320277</v>
+        <v>23.32479612451502</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.600999029847738</v>
       </c>
       <c r="I2">
-        <v>65.89388833237599</v>
+        <v>2.600979149934654</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9.23511882120264</v>
       </c>
       <c r="K2">
-        <v>12.65674918306292</v>
+        <v>14.36618344427748</v>
       </c>
       <c r="L2">
-        <v>7.83539270432134</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.48534120568709</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14.12815905331079</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>15.14535077786525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.28466435590967</v>
+        <v>11.4244894746038</v>
       </c>
       <c r="C3">
-        <v>12.3099599536707</v>
+        <v>8.067737960192121</v>
       </c>
       <c r="D3">
-        <v>6.401141067898718</v>
+        <v>6.604828211236908</v>
       </c>
       <c r="E3">
-        <v>4.413561464990678</v>
+        <v>15.04079508383529</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.170388547113195</v>
+        <v>22.93308288030283</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.719842222121828</v>
       </c>
       <c r="I3">
-        <v>62.30938202984123</v>
+        <v>2.744436073769849</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.25196839907272</v>
       </c>
       <c r="K3">
-        <v>12.06228106342265</v>
+        <v>14.43390147849938</v>
       </c>
       <c r="L3">
-        <v>7.610003665589621</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.92163762681391</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13.32176834322001</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>15.08438797637175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.93543293191042</v>
+        <v>10.9606909628719</v>
       </c>
       <c r="C4">
-        <v>11.75968750783294</v>
+        <v>7.830671288634505</v>
       </c>
       <c r="D4">
-        <v>6.13327277689552</v>
+        <v>6.29133383531039</v>
       </c>
       <c r="E4">
-        <v>4.440317744254076</v>
+        <v>14.47397296540931</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.178998959751684</v>
+        <v>22.69908921089872</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.847609211435763</v>
       </c>
       <c r="I4">
-        <v>60.04300462267524</v>
+        <v>2.836586131390653</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.264923859673909</v>
       </c>
       <c r="K4">
-        <v>11.70308166534599</v>
+        <v>14.47888544631654</v>
       </c>
       <c r="L4">
-        <v>7.474819793791318</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.55983290278741</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.801750625272</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>15.05210909297056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.79650968226693</v>
+        <v>10.76284249445749</v>
       </c>
       <c r="C5">
-        <v>11.53050717701076</v>
+        <v>7.740402768311534</v>
       </c>
       <c r="D5">
-        <v>6.022433832672315</v>
+        <v>6.178717505386311</v>
       </c>
       <c r="E5">
-        <v>4.451965888306</v>
+        <v>14.23491752159169</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.18254257274564</v>
+        <v>22.59074684368834</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.900981793102585</v>
       </c>
       <c r="I5">
-        <v>59.10308120080965</v>
+        <v>2.87813601307792</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.268456110915038</v>
       </c>
       <c r="K5">
-        <v>11.55825960213661</v>
+        <v>14.49215857997391</v>
       </c>
       <c r="L5">
-        <v>7.420546993616347</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.41009305613442</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.58459171004916</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>15.03421487863673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.77364946084468</v>
+        <v>10.72654470594024</v>
       </c>
       <c r="C6">
-        <v>11.49215439269277</v>
+        <v>7.735050621540594</v>
       </c>
       <c r="D6">
-        <v>6.003929432201772</v>
+        <v>6.159843136934675</v>
       </c>
       <c r="E6">
-        <v>4.453944325963356</v>
+        <v>14.19332365313389</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.183133230824754</v>
+        <v>22.55491562237919</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.910101118007036</v>
       </c>
       <c r="I6">
-        <v>58.94602645195406</v>
+        <v>2.888923164732401</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.266163224383082</v>
       </c>
       <c r="K6">
-        <v>11.53430932529601</v>
+        <v>14.48721960933214</v>
       </c>
       <c r="L6">
-        <v>7.411584692063991</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.38689419623862</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.54927474390067</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>15.0239784100186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.93354549814171</v>
+        <v>10.94985773504246</v>
       </c>
       <c r="C7">
-        <v>11.75661667409034</v>
+        <v>7.855664185011012</v>
       </c>
       <c r="D7">
-        <v>6.131784690546171</v>
+        <v>6.289784280766309</v>
       </c>
       <c r="E7">
-        <v>4.440471852082826</v>
+        <v>14.46680608754888</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.179046602763667</v>
+        <v>22.64890929704873</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.848824768793661</v>
       </c>
       <c r="I7">
-        <v>60.03039443678117</v>
+        <v>2.847271121600631</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.257018193669513</v>
       </c>
       <c r="K7">
-        <v>11.70112209949665</v>
+        <v>14.4594302671569</v>
       </c>
       <c r="L7">
-        <v>7.474084532106373</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.56293570561768</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.80181354739533</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>15.03187261136203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.66866729405658</v>
+        <v>11.88750341688359</v>
       </c>
       <c r="C8">
-        <v>12.88026021175748</v>
+        <v>8.34815159532512</v>
       </c>
       <c r="D8">
-        <v>6.715107247635152</v>
+        <v>6.925215072543393</v>
       </c>
       <c r="E8">
-        <v>4.387627660557566</v>
+        <v>15.61708649208167</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.161304921014689</v>
+        <v>23.12546728229601</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.588024256447668</v>
       </c>
       <c r="I8">
-        <v>64.67154749580639</v>
+        <v>2.662643400066401</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.229940445666013</v>
       </c>
       <c r="K8">
-        <v>12.45061638858294</v>
+        <v>14.36293464148507</v>
       </c>
       <c r="L8">
-        <v>7.757016791832197</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.30073561934948</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>13.85898306313873</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>15.09709465982383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.57114332654306</v>
+        <v>13.53629456023328</v>
       </c>
       <c r="C9">
-        <v>14.93041769577032</v>
+        <v>9.215893344345181</v>
       </c>
       <c r="D9">
-        <v>7.8893453414595</v>
+        <v>8.037182922694223</v>
       </c>
       <c r="E9">
-        <v>4.309625113294061</v>
+        <v>17.65674724402515</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.12718026395551</v>
+        <v>24.1940451948122</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.999260711656962</v>
       </c>
       <c r="I9">
-        <v>73.25870417270967</v>
+        <v>2.635993335010798</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.212425724516333</v>
       </c>
       <c r="K9">
-        <v>14.1851392480262</v>
+        <v>14.23693749849451</v>
       </c>
       <c r="L9">
-        <v>8.337329479814313</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.61119372235155</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>15.72646242644744</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>15.30255294937839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.1188748943925</v>
+        <v>14.65403438043913</v>
       </c>
       <c r="C10">
-        <v>16.35003697816945</v>
+        <v>9.831786343333523</v>
       </c>
       <c r="D10">
-        <v>8.693084550870655</v>
+        <v>8.772125269533261</v>
       </c>
       <c r="E10">
-        <v>4.270022113321403</v>
+        <v>18.46376815702537</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.102080855913606</v>
+        <v>24.76251695570487</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.300675286103183</v>
       </c>
       <c r="I10">
-        <v>79.27703140689093</v>
+        <v>2.866004838199501</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.171903924852899</v>
       </c>
       <c r="K10">
-        <v>15.72928606389347</v>
+        <v>14.08168591962678</v>
       </c>
       <c r="L10">
-        <v>8.780267499507069</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.5164533468898</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>16.7078636177325</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>15.37680665396389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.81867146700126</v>
+        <v>15.42367261792181</v>
       </c>
       <c r="C11">
-        <v>16.97953221805766</v>
+        <v>10.16149933679734</v>
       </c>
       <c r="D11">
-        <v>9.047877405503399</v>
+        <v>9.084989901346502</v>
       </c>
       <c r="E11">
-        <v>4.25640361834363</v>
+        <v>14.18803381895472</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.090537513939438</v>
+        <v>23.04855005529022</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.03625915891494</v>
       </c>
       <c r="I11">
-        <v>81.96136043435575</v>
+        <v>2.941022044125525</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.817057939687558</v>
       </c>
       <c r="K11">
-        <v>16.41756264831384</v>
+        <v>13.3737320440896</v>
       </c>
       <c r="L11">
-        <v>8.985957041409161</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.10561211067642</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.85925155887367</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>14.5696778637303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.08353968851974</v>
+        <v>15.86129520634902</v>
       </c>
       <c r="C12">
-        <v>17.21584325987621</v>
+        <v>10.28342737513437</v>
       </c>
       <c r="D12">
-        <v>9.180865906240584</v>
+        <v>9.199675046083497</v>
       </c>
       <c r="E12">
-        <v>4.251933962163792</v>
+        <v>10.6494127057197</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.086136170905641</v>
+        <v>21.53309028391939</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.22764360103751</v>
       </c>
       <c r="I12">
-        <v>82.97129864682819</v>
+        <v>2.956043186271838</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.538390743656526</v>
       </c>
       <c r="K12">
-        <v>16.67661273684618</v>
+        <v>12.85380544253216</v>
       </c>
       <c r="L12">
-        <v>9.064529229989901</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.41677120117057</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>13.08304472760109</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>13.90010417731417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.02649230059431</v>
+        <v>16.07333021686452</v>
       </c>
       <c r="C13">
-        <v>17.16503612777073</v>
+        <v>10.28897862043199</v>
       </c>
       <c r="D13">
-        <v>9.152281663102766</v>
+        <v>9.172392599572978</v>
       </c>
       <c r="E13">
-        <v>4.252865041180033</v>
+        <v>7.725639121432192</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.087085635795647</v>
+        <v>19.99106306066243</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.522001083921369</v>
       </c>
       <c r="I13">
-        <v>82.75406080258315</v>
+        <v>2.930580389986026</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.289961468380225</v>
       </c>
       <c r="K13">
-        <v>16.62088401936654</v>
+        <v>12.42106103991919</v>
       </c>
       <c r="L13">
-        <v>9.047575386570154</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.54689401644517</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.21042082680211</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>13.2651045102298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.84046171756409</v>
+        <v>16.12098161502928</v>
       </c>
       <c r="C14">
-        <v>16.99901322005243</v>
+        <v>10.24750572849065</v>
       </c>
       <c r="D14">
-        <v>9.058844553646411</v>
+        <v>9.088762931953701</v>
       </c>
       <c r="E14">
-        <v>4.256021774726689</v>
+        <v>6.501081214387272</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.090176093941027</v>
+        <v>18.88795380699476</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.460965190405838</v>
       </c>
       <c r="I14">
-        <v>82.04457254735628</v>
+        <v>2.89598819462388</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.129945670082435</v>
       </c>
       <c r="K14">
-        <v>16.4389037225082</v>
+        <v>12.16059718748165</v>
       </c>
       <c r="L14">
-        <v>8.992406993819664</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.5591621491038</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>9.948057682259103</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>12.83579227028762</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.72651220991874</v>
+        <v>16.08145066637597</v>
       </c>
       <c r="C15">
-        <v>16.89705987353837</v>
+        <v>10.2209513312851</v>
       </c>
       <c r="D15">
-        <v>9.001440330483877</v>
+        <v>9.037673195879856</v>
       </c>
       <c r="E15">
-        <v>4.258046662626913</v>
+        <v>6.375316319983352</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.092064768028483</v>
+        <v>18.60089853035424</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.675507929334628</v>
       </c>
       <c r="I15">
-        <v>81.60917505085335</v>
+        <v>2.879906701728439</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.095327387027366</v>
       </c>
       <c r="K15">
-        <v>16.32724399281684</v>
+        <v>12.10935216160009</v>
       </c>
       <c r="L15">
-        <v>8.958706434895074</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.52458639045052</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.629809870450529</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>12.73357274981181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.07309430338135</v>
+        <v>15.59546564481138</v>
       </c>
       <c r="C16">
-        <v>16.30859233024104</v>
+        <v>9.979528468176094</v>
       </c>
       <c r="D16">
-        <v>8.669695867921645</v>
+        <v>8.741499891060579</v>
       </c>
       <c r="E16">
-        <v>4.271005112597936</v>
+        <v>6.368438389376068</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.102831731665062</v>
+        <v>18.60199492886072</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.448999244090921</v>
       </c>
       <c r="I16">
-        <v>79.10061815805692</v>
+        <v>2.789789312516685</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.159297563371823</v>
       </c>
       <c r="K16">
-        <v>15.68405718808086</v>
+        <v>12.25843514901344</v>
       </c>
       <c r="L16">
-        <v>8.766915683731971</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.13707358434918</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.438449714543422</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>12.81655257869656</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.67145732708479</v>
+        <v>15.1866841308419</v>
       </c>
       <c r="C17">
-        <v>15.94359002671454</v>
+        <v>9.814889801274164</v>
       </c>
       <c r="D17">
-        <v>8.463535037110944</v>
+        <v>8.555932199236558</v>
       </c>
       <c r="E17">
-        <v>4.280117515329318</v>
+        <v>6.80901612250412</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.109396842135557</v>
+        <v>19.19478394658963</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.694074968797365</v>
       </c>
       <c r="I17">
-        <v>77.54871946291458</v>
+        <v>2.73891084781967</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.292314937770957</v>
       </c>
       <c r="K17">
-        <v>15.2861499327196</v>
+        <v>12.50597746515464</v>
       </c>
       <c r="L17">
-        <v>8.650379702559496</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.82704772134736</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>9.962113030782236</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>13.10641847059274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.44000839849186</v>
+        <v>14.8114916025539</v>
       </c>
       <c r="C18">
-        <v>15.7320960607136</v>
+        <v>9.681844534926705</v>
       </c>
       <c r="D18">
-        <v>8.343923901740789</v>
+        <v>8.448633329104705</v>
       </c>
       <c r="E18">
-        <v>4.285768854675875</v>
+        <v>8.676705119251979</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.11316194661724</v>
+        <v>20.40067699746689</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.447646482411185</v>
       </c>
       <c r="I18">
-        <v>76.65099406670973</v>
+        <v>2.714200205129903</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.507556715499923</v>
       </c>
       <c r="K18">
-        <v>15.05591938932898</v>
+        <v>12.89212510534075</v>
       </c>
       <c r="L18">
-        <v>8.583739816807565</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.55094288739479</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.35515083328783</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>13.62569068742458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.36155566971612</v>
+        <v>14.48626344969652</v>
       </c>
       <c r="C19">
-        <v>15.66021347396106</v>
+        <v>9.632872543250819</v>
       </c>
       <c r="D19">
-        <v>8.303242837567883</v>
+        <v>8.41378283032015</v>
       </c>
       <c r="E19">
-        <v>4.28775119662475</v>
+        <v>12.11794940571231</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.114435195054303</v>
+        <v>21.9399621330736</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.10118921592255</v>
       </c>
       <c r="I19">
-        <v>76.34613188420089</v>
+        <v>2.724997444923589</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.765610569945432</v>
       </c>
       <c r="K19">
-        <v>14.97772050128712</v>
+        <v>13.35429873434868</v>
       </c>
       <c r="L19">
-        <v>8.561241495612006</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.33743632430856</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.27885482838576</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>14.26988053603723</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.71425445898155</v>
+        <v>14.35073404234064</v>
       </c>
       <c r="C20">
-        <v>15.98260420386656</v>
+        <v>9.742172566410584</v>
       </c>
       <c r="D20">
-        <v>8.485586807038572</v>
+        <v>8.584345236322264</v>
       </c>
       <c r="E20">
-        <v>4.279104665691333</v>
+        <v>18.22173631058741</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.108699191233089</v>
+        <v>24.4633325177491</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.219229213051468</v>
       </c>
       <c r="I20">
-        <v>77.71444385481232</v>
+        <v>2.81721220825226</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9.155894371644626</v>
       </c>
       <c r="K20">
-        <v>15.32864609701476</v>
+        <v>14.05807332677316</v>
       </c>
       <c r="L20">
-        <v>8.662744468131688</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.2990094511474</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>16.45148208830831</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>15.29186205485014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.89510245227358</v>
+        <v>15.12028092259077</v>
       </c>
       <c r="C21">
-        <v>17.04783166155079</v>
+        <v>10.18211227890067</v>
       </c>
       <c r="D21">
-        <v>9.086324601172414</v>
+        <v>9.123767624972585</v>
       </c>
       <c r="E21">
-        <v>4.255075428488855</v>
+        <v>19.65938757831661</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.089269276754899</v>
+        <v>25.28457941464351</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.477857258430832</v>
       </c>
       <c r="I21">
-        <v>82.25313392822737</v>
+        <v>2.9944203632738</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.193884472712158</v>
       </c>
       <c r="K21">
-        <v>16.49239472965023</v>
+        <v>14.07020055744133</v>
       </c>
       <c r="L21">
-        <v>9.008591998563805</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.9301700126741</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>17.57744087493842</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>15.51866179918954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.66641722455915</v>
+        <v>15.6259687149574</v>
       </c>
       <c r="C22">
-        <v>17.74719869490413</v>
+        <v>10.43733548202322</v>
       </c>
       <c r="D22">
-        <v>9.471107643241588</v>
+        <v>9.461802174856615</v>
       </c>
       <c r="E22">
-        <v>4.243409625497012</v>
+        <v>20.29166870260032</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.076387731445218</v>
+        <v>25.76598229408388</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.632644395130983</v>
       </c>
       <c r="I22">
-        <v>85.1819580828449</v>
+        <v>3.102254971291991</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9.212146623704703</v>
       </c>
       <c r="K22">
-        <v>17.24400931002239</v>
+        <v>14.07045123343139</v>
       </c>
       <c r="L22">
-        <v>9.238658568577311</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.33327030050645</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>18.14958425981332</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>15.64804565648076</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.2545987619325</v>
+        <v>15.36531933185577</v>
       </c>
       <c r="C23">
-        <v>17.36888805974262</v>
+        <v>10.27664780408888</v>
       </c>
       <c r="D23">
-        <v>9.266385291365239</v>
+        <v>9.282770304665888</v>
       </c>
       <c r="E23">
-        <v>4.249245793460724</v>
+        <v>19.95993426961634</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.083284208880067</v>
+        <v>25.5591108553405</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.550773054657701</v>
       </c>
       <c r="I23">
-        <v>83.62176189830348</v>
+        <v>3.040728422704391</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.211147691651512</v>
       </c>
       <c r="K23">
-        <v>16.84350499251284</v>
+        <v>14.09261303806907</v>
       </c>
       <c r="L23">
-        <v>9.11546415626006</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.11466311464173</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>17.84377875390301</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>15.60056588337923</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.69490760025925</v>
+        <v>14.32163591079669</v>
       </c>
       <c r="C24">
-        <v>15.96497105145414</v>
+        <v>9.692682513865254</v>
       </c>
       <c r="D24">
-        <v>8.47562060021065</v>
+        <v>8.575786956092548</v>
       </c>
       <c r="E24">
-        <v>4.279561294218142</v>
+        <v>18.64725148860045</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.109014627187354</v>
+        <v>24.70676208585626</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.23335611064855</v>
       </c>
       <c r="I24">
-        <v>77.63953712565697</v>
+        <v>2.810314917714668</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.199428880746643</v>
       </c>
       <c r="K24">
-        <v>15.30943818749288</v>
+        <v>14.14982793543129</v>
       </c>
       <c r="L24">
-        <v>8.65715324737941</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.26326616551942</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>16.64276770836252</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>15.39805019184466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.99478063990168</v>
+        <v>13.09962092853743</v>
       </c>
       <c r="C25">
-        <v>14.39167616716989</v>
+        <v>9.029586812710978</v>
       </c>
       <c r="D25">
-        <v>7.582629352158277</v>
+        <v>7.750680798702906</v>
       </c>
       <c r="E25">
-        <v>4.327785083797385</v>
+        <v>17.12313171457148</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.136381455709415</v>
+        <v>23.81718953169579</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.876155612143217</v>
       </c>
       <c r="I25">
-        <v>70.98912489248148</v>
+        <v>2.554434978641248</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9.200651374876514</v>
       </c>
       <c r="K25">
-        <v>13.60137277185833</v>
+        <v>14.23270327614159</v>
       </c>
       <c r="L25">
-        <v>8.177557321331026</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.27902227325946</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>15.24767059867592</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>15.20717820251821</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_54/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.1384621290565</v>
+        <v>12.09864912035051</v>
       </c>
       <c r="C2">
-        <v>8.44311461001926</v>
+        <v>8.60523870444419</v>
       </c>
       <c r="D2">
-        <v>7.088476126883861</v>
+        <v>7.091209338750279</v>
       </c>
       <c r="E2">
-        <v>15.9189402118258</v>
+        <v>15.89954460023327</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>23.32479612451502</v>
+        <v>21.80328144622118</v>
       </c>
       <c r="H2">
-        <v>1.600999029847738</v>
+        <v>1.624654308087586</v>
       </c>
       <c r="I2">
-        <v>2.600979149934654</v>
+        <v>2.518402301672113</v>
       </c>
       <c r="J2">
-        <v>9.23511882120264</v>
+        <v>9.451186803832826</v>
       </c>
       <c r="K2">
-        <v>14.36618344427748</v>
+        <v>13.8304265065048</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.8618726066117</v>
       </c>
       <c r="M2">
-        <v>11.48534120568709</v>
+        <v>8.599946049983403</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.12815905331079</v>
+        <v>11.56686423078944</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>15.14535077786525</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.19361339631966</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>14.71874104120652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.4244894746038</v>
+        <v>11.41828751995626</v>
       </c>
       <c r="C3">
-        <v>8.067737960192121</v>
+        <v>8.127427241700207</v>
       </c>
       <c r="D3">
-        <v>6.604828211236908</v>
+        <v>6.608178412967137</v>
       </c>
       <c r="E3">
-        <v>15.04079508383529</v>
+        <v>15.04104711926101</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>22.93308288030283</v>
+        <v>21.54438738521122</v>
       </c>
       <c r="H3">
-        <v>1.719842222121828</v>
+        <v>1.688886172299525</v>
       </c>
       <c r="I3">
-        <v>2.744436073769849</v>
+        <v>2.645023601049331</v>
       </c>
       <c r="J3">
-        <v>9.25196839907272</v>
+        <v>9.451864324184356</v>
       </c>
       <c r="K3">
-        <v>14.43390147849938</v>
+        <v>13.93304707031016</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.01760124883719</v>
       </c>
       <c r="M3">
-        <v>10.92163762681391</v>
+        <v>8.620486570309831</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.32176834322001</v>
+        <v>10.99160012293081</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>15.08438797637175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.38266641110043</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>14.70023939390094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.9606909628719</v>
+        <v>10.97677477779404</v>
       </c>
       <c r="C4">
-        <v>7.830671288634505</v>
+        <v>7.824307351330412</v>
       </c>
       <c r="D4">
-        <v>6.29133383531039</v>
+        <v>6.294212867888126</v>
       </c>
       <c r="E4">
-        <v>14.47397296540931</v>
+        <v>14.48729017916703</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>22.69908921089872</v>
+        <v>21.39428558832546</v>
       </c>
       <c r="H4">
-        <v>1.847609211435763</v>
+        <v>1.812413392095497</v>
       </c>
       <c r="I4">
-        <v>2.836586131390653</v>
+        <v>2.726720216389662</v>
       </c>
       <c r="J4">
-        <v>9.264923859673909</v>
+        <v>9.453102134439698</v>
       </c>
       <c r="K4">
-        <v>14.47888544631654</v>
+        <v>13.9982446835124</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.11513572077343</v>
       </c>
       <c r="M4">
-        <v>10.55983290278741</v>
+        <v>8.651422049600678</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.801750625272</v>
+        <v>10.62248010795627</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15.05210909297056</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.85970929648115</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.69299411004606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.76284249445749</v>
+        <v>10.78852337252929</v>
       </c>
       <c r="C5">
-        <v>7.740402768311534</v>
+        <v>7.706909765088353</v>
       </c>
       <c r="D5">
-        <v>6.178717505386311</v>
+        <v>6.181381390842853</v>
       </c>
       <c r="E5">
-        <v>14.23491752159169</v>
+        <v>14.2538597488993</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>22.59074684368834</v>
+        <v>21.32099468826652</v>
       </c>
       <c r="H5">
-        <v>1.900981793102585</v>
+        <v>1.86402050870053</v>
       </c>
       <c r="I5">
-        <v>2.87813601307792</v>
+        <v>2.764499940376692</v>
       </c>
       <c r="J5">
-        <v>9.268456110915038</v>
+        <v>9.451511955162962</v>
       </c>
       <c r="K5">
-        <v>14.49215857997391</v>
+        <v>14.01984179145233</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.15019286165742</v>
       </c>
       <c r="M5">
-        <v>10.41009305613442</v>
+        <v>8.665543393511411</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.58459171004916</v>
+        <v>10.46969030405943</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15.03421487863673</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.64129731129155</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.68529275497605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.72654470594024</v>
+        <v>10.75395278032664</v>
       </c>
       <c r="C6">
-        <v>7.735050621540594</v>
+        <v>7.69767421319667</v>
       </c>
       <c r="D6">
-        <v>6.159843136934675</v>
+        <v>6.162512405444672</v>
       </c>
       <c r="E6">
-        <v>14.19332365313389</v>
+        <v>14.2132652266849</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>22.55491562237919</v>
+        <v>21.29147396262544</v>
       </c>
       <c r="H6">
-        <v>1.910101118007036</v>
+        <v>1.87283578183737</v>
       </c>
       <c r="I6">
-        <v>2.888923164732401</v>
+        <v>2.775346520010519</v>
       </c>
       <c r="J6">
-        <v>9.266163224383082</v>
+        <v>9.448452722043637</v>
       </c>
       <c r="K6">
-        <v>14.48721960933214</v>
+        <v>14.01673987802296</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.14973332601972</v>
       </c>
       <c r="M6">
-        <v>10.38689419623862</v>
+        <v>8.664437638339207</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.54927474390067</v>
+        <v>10.44595077427026</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15.0239784100186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.60573923322079</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.67705039581797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.94985773504246</v>
+        <v>10.9671220118861</v>
       </c>
       <c r="C7">
-        <v>7.855664185011012</v>
+        <v>7.845952645647915</v>
       </c>
       <c r="D7">
-        <v>6.289784280766309</v>
+        <v>6.292383932799315</v>
       </c>
       <c r="E7">
-        <v>14.46680608754888</v>
+        <v>14.48012302870246</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>22.64890929704873</v>
+        <v>21.41882009715049</v>
       </c>
       <c r="H7">
-        <v>1.848824768793661</v>
+        <v>1.813935119906089</v>
       </c>
       <c r="I7">
-        <v>2.847271121600631</v>
+        <v>2.739656922279767</v>
       </c>
       <c r="J7">
-        <v>9.257018193669513</v>
+        <v>9.410422432251865</v>
       </c>
       <c r="K7">
-        <v>14.4594302671569</v>
+        <v>13.97317409093896</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.09234953946662</v>
       </c>
       <c r="M7">
-        <v>10.56293570561768</v>
+        <v>8.63677382423416</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.80181354739533</v>
+        <v>10.6241874937495</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15.03187261136203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.85912417821041</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.66270035476675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.88750341688359</v>
+        <v>11.86172016992546</v>
       </c>
       <c r="C8">
-        <v>8.34815159532512</v>
+        <v>8.462857163972762</v>
       </c>
       <c r="D8">
-        <v>6.925215072543393</v>
+        <v>6.928029749004454</v>
       </c>
       <c r="E8">
-        <v>15.61708649208167</v>
+        <v>15.60390822397087</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>23.12546728229601</v>
+        <v>21.89079985614941</v>
       </c>
       <c r="H8">
-        <v>1.588024256447668</v>
+        <v>1.562548590084771</v>
       </c>
       <c r="I8">
-        <v>2.662643400066401</v>
+        <v>2.578127087098785</v>
       </c>
       <c r="J8">
-        <v>9.229940445666013</v>
+        <v>9.327236117332633</v>
       </c>
       <c r="K8">
-        <v>14.36293464148507</v>
+        <v>13.81836108327531</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.87552012725686</v>
       </c>
       <c r="M8">
-        <v>11.30073561934948</v>
+        <v>8.571171669384574</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.85898306313873</v>
+        <v>11.37431410844239</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15.09709465982383</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.92109691511234</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>14.65023348042206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.53629456023328</v>
+        <v>13.43535823974611</v>
       </c>
       <c r="C9">
-        <v>9.215893344345181</v>
+        <v>9.563218579346163</v>
       </c>
       <c r="D9">
-        <v>8.037182922694223</v>
+        <v>8.03804579418134</v>
       </c>
       <c r="E9">
-        <v>17.65674724402515</v>
+        <v>17.59968460903334</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>24.1940451948122</v>
+        <v>22.69996373892521</v>
       </c>
       <c r="H9">
-        <v>1.999260711656962</v>
+        <v>2.008162962405394</v>
       </c>
       <c r="I9">
-        <v>2.635993335010798</v>
+        <v>2.68754625153928</v>
       </c>
       <c r="J9">
-        <v>9.212425724516333</v>
+        <v>9.308664108848218</v>
       </c>
       <c r="K9">
-        <v>14.23693749849451</v>
+        <v>13.59069197053804</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.5153030642118</v>
       </c>
       <c r="M9">
-        <v>12.61119372235155</v>
+        <v>8.627163306358291</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.72646242644744</v>
+        <v>12.71156635340306</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15.30255294937839</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>15.79877895360928</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>14.73415169382406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.65403438043913</v>
+        <v>14.51139906414217</v>
       </c>
       <c r="C10">
-        <v>9.831786343333523</v>
+        <v>10.30225191039321</v>
       </c>
       <c r="D10">
-        <v>8.772125269533261</v>
+        <v>8.770963757354833</v>
       </c>
       <c r="E10">
-        <v>18.46376815702537</v>
+        <v>18.37971560627312</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>24.76251695570487</v>
+        <v>23.51467464553178</v>
       </c>
       <c r="H10">
-        <v>2.300675286103183</v>
+        <v>2.29704451550091</v>
       </c>
       <c r="I10">
-        <v>2.866004838199501</v>
+        <v>2.890300370919</v>
       </c>
       <c r="J10">
-        <v>9.171903924852899</v>
+        <v>9.075308105473425</v>
       </c>
       <c r="K10">
-        <v>14.08168591962678</v>
+        <v>13.32934375991381</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.18774577581764</v>
       </c>
       <c r="M10">
-        <v>13.5164533468898</v>
+        <v>8.664592335070283</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.7078636177325</v>
+        <v>13.62744692224769</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15.37680665396389</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>16.78307615154376</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>14.66512759443736</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.42367261792181</v>
+        <v>15.29330085934207</v>
       </c>
       <c r="C11">
-        <v>10.16149933679734</v>
+        <v>10.56801130362305</v>
       </c>
       <c r="D11">
-        <v>9.084989901346502</v>
+        <v>9.08274521168827</v>
       </c>
       <c r="E11">
-        <v>14.18803381895472</v>
+        <v>14.10245349463501</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>23.04855005529022</v>
+        <v>22.75232352538796</v>
       </c>
       <c r="H11">
-        <v>3.03625915891494</v>
+        <v>3.029373898250704</v>
       </c>
       <c r="I11">
-        <v>2.941022044125525</v>
+        <v>2.956107811515293</v>
       </c>
       <c r="J11">
-        <v>8.817057939687558</v>
+        <v>8.439580169850855</v>
       </c>
       <c r="K11">
-        <v>13.3737320440896</v>
+        <v>12.63608995784293</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.67534122652696</v>
       </c>
       <c r="M11">
-        <v>14.10561211067642</v>
+        <v>8.171677156245668</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.85925155887367</v>
+        <v>14.19744361884511</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.5696778637303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.92312581189423</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.79306350731879</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.86129520634902</v>
+        <v>15.74734786204362</v>
       </c>
       <c r="C12">
-        <v>10.28342737513437</v>
+        <v>10.62083923305015</v>
       </c>
       <c r="D12">
-        <v>9.199675046083497</v>
+        <v>9.197099260025052</v>
       </c>
       <c r="E12">
-        <v>10.6494127057197</v>
+        <v>10.56638141293945</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>21.53309028391939</v>
+        <v>21.72767205945127</v>
       </c>
       <c r="H12">
-        <v>4.22764360103751</v>
+        <v>4.222072721269438</v>
       </c>
       <c r="I12">
-        <v>2.956043186271838</v>
+        <v>2.967950928274951</v>
       </c>
       <c r="J12">
-        <v>8.538390743656526</v>
+        <v>8.118004856291213</v>
       </c>
       <c r="K12">
-        <v>12.85380544253216</v>
+        <v>12.17898508985443</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.37552796576489</v>
       </c>
       <c r="M12">
-        <v>14.41677120117057</v>
+        <v>7.79019856356436</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.08304472760109</v>
+        <v>14.4930321217081</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.90010417731417</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.13830398603894</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>13.14165242121505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.07333021686452</v>
+        <v>15.9784654460712</v>
       </c>
       <c r="C13">
-        <v>10.28897862043199</v>
+        <v>10.55932272999436</v>
       </c>
       <c r="D13">
-        <v>9.172392599572978</v>
+        <v>9.170172069559118</v>
       </c>
       <c r="E13">
-        <v>7.725639121432192</v>
+        <v>7.654868759647671</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>19.99106306066243</v>
+        <v>20.17732091882349</v>
       </c>
       <c r="H13">
-        <v>5.522001083921369</v>
+        <v>5.518626842820511</v>
       </c>
       <c r="I13">
-        <v>2.930580389986026</v>
+        <v>2.94601016813243</v>
       </c>
       <c r="J13">
-        <v>8.289961468380225</v>
+        <v>8.004247285783512</v>
       </c>
       <c r="K13">
-        <v>12.42106103991919</v>
+        <v>11.85789900437834</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.18855581816679</v>
       </c>
       <c r="M13">
-        <v>14.54689401644517</v>
+        <v>7.469006039866273</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.21042082680211</v>
+        <v>14.61129787550625</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.2651045102298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.25917915001252</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.61175692864519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.12098161502928</v>
+        <v>16.04090104766979</v>
       </c>
       <c r="C14">
-        <v>10.24750572849065</v>
+        <v>10.47086973843117</v>
       </c>
       <c r="D14">
-        <v>9.088762931953701</v>
+        <v>9.08708475187531</v>
       </c>
       <c r="E14">
-        <v>6.501081214387272</v>
+        <v>6.452198333539623</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>18.88795380699476</v>
+        <v>18.85578485412101</v>
       </c>
       <c r="H14">
-        <v>6.460965190405838</v>
+        <v>6.459042785237424</v>
       </c>
       <c r="I14">
-        <v>2.89598819462388</v>
+        <v>2.917165858971654</v>
       </c>
       <c r="J14">
-        <v>8.129945670082435</v>
+        <v>7.995268376166509</v>
       </c>
       <c r="K14">
-        <v>12.16059718748165</v>
+        <v>11.69050377135763</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.09950951497478</v>
       </c>
       <c r="M14">
-        <v>14.5591621491038</v>
+        <v>7.274286798019852</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.948057682259103</v>
+        <v>14.61663661909648</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12.83579227028762</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.974993320066265</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>12.28994529600828</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.08145066637597</v>
+        <v>16.00575506497022</v>
       </c>
       <c r="C15">
-        <v>10.2209513312851</v>
+        <v>10.4328513088437</v>
       </c>
       <c r="D15">
-        <v>9.037673195879856</v>
+        <v>9.036267861794665</v>
       </c>
       <c r="E15">
-        <v>6.375316319983352</v>
+        <v>6.335844161187201</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>18.60089853035424</v>
+        <v>18.42917375877773</v>
       </c>
       <c r="H15">
-        <v>6.675507929334628</v>
+        <v>6.674090530815771</v>
       </c>
       <c r="I15">
-        <v>2.879906701728439</v>
+        <v>2.90445453489545</v>
       </c>
       <c r="J15">
-        <v>8.095327387027366</v>
+        <v>8.02196341670774</v>
       </c>
       <c r="K15">
-        <v>12.10935216160009</v>
+        <v>11.66876197107071</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.09118184483829</v>
       </c>
       <c r="M15">
-        <v>14.52458639045052</v>
+        <v>7.235770772051926</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.629809870450529</v>
+        <v>14.58102939473118</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12.73357274981181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.654728518704783</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>12.22817826805658</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.59546564481138</v>
+        <v>15.52738962566436</v>
       </c>
       <c r="C16">
-        <v>9.979528468176094</v>
+        <v>10.18652201951025</v>
       </c>
       <c r="D16">
-        <v>8.741499891060579</v>
+        <v>8.741359187314572</v>
       </c>
       <c r="E16">
-        <v>6.368438389376068</v>
+        <v>6.350451322264306</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>18.60199492886072</v>
+        <v>17.74103623985972</v>
       </c>
       <c r="H16">
-        <v>6.448999244090921</v>
+        <v>6.448554398966733</v>
       </c>
       <c r="I16">
-        <v>2.789789312516685</v>
+        <v>2.82884559319448</v>
       </c>
       <c r="J16">
-        <v>8.159297563371823</v>
+        <v>8.311762513565892</v>
       </c>
       <c r="K16">
-        <v>12.25843514901344</v>
+        <v>11.87387471479045</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.23827696639038</v>
       </c>
       <c r="M16">
-        <v>14.13707358434918</v>
+        <v>7.344520239351154</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.438449714543422</v>
+        <v>14.19944532693073</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.81655257869656</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.461876731946202</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>12.42815799456976</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.1866841308419</v>
+        <v>15.11770827944051</v>
       </c>
       <c r="C17">
-        <v>9.814889801274164</v>
+        <v>10.03784294705027</v>
       </c>
       <c r="D17">
-        <v>8.555932199236558</v>
+        <v>8.556390858519457</v>
       </c>
       <c r="E17">
-        <v>6.80901612250412</v>
+        <v>6.79043497940342</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>19.19478394658963</v>
+        <v>18.01834485860078</v>
       </c>
       <c r="H17">
-        <v>5.694074968797365</v>
+        <v>5.692659372665357</v>
       </c>
       <c r="I17">
-        <v>2.73891084781967</v>
+        <v>2.785719312958276</v>
       </c>
       <c r="J17">
-        <v>8.292314937770957</v>
+        <v>8.53364552764226</v>
       </c>
       <c r="K17">
-        <v>12.50597746515464</v>
+        <v>12.11569577072629</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.4079724736724</v>
       </c>
       <c r="M17">
-        <v>13.82704772134736</v>
+        <v>7.518006269602597</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.962113030782236</v>
+        <v>13.89641288735233</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.10641847059274</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.00086673434018</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.74195193287921</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.8114916025539</v>
+        <v>14.73223310859227</v>
       </c>
       <c r="C18">
-        <v>9.681844534926705</v>
+        <v>9.948202839998526</v>
       </c>
       <c r="D18">
-        <v>8.448633329104705</v>
+        <v>8.44929072814962</v>
       </c>
       <c r="E18">
-        <v>8.676705119251979</v>
+        <v>8.643371765474775</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>20.40067699746689</v>
+        <v>19.02480904179759</v>
       </c>
       <c r="H18">
-        <v>4.447646482411185</v>
+        <v>4.450426839296961</v>
       </c>
       <c r="I18">
-        <v>2.714200205129903</v>
+        <v>2.762897934261351</v>
       </c>
       <c r="J18">
-        <v>8.507556715499923</v>
+        <v>8.765688786631221</v>
       </c>
       <c r="K18">
-        <v>12.89212510534075</v>
+        <v>12.4512507170836</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.64303029393878</v>
       </c>
       <c r="M18">
-        <v>13.55094288739479</v>
+        <v>7.787648018000519</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.35515083328783</v>
+        <v>13.63085335294388</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.62569068742458</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.41277289338875</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>13.22870048839351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.48626344969652</v>
+        <v>14.389689198987</v>
       </c>
       <c r="C19">
-        <v>9.632872543250819</v>
+        <v>9.965127065637827</v>
       </c>
       <c r="D19">
-        <v>8.41378283032015</v>
+        <v>8.414331919101306</v>
       </c>
       <c r="E19">
-        <v>12.11794940571231</v>
+        <v>12.06772632841583</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>21.9399621330736</v>
+        <v>20.40953702320783</v>
       </c>
       <c r="H19">
-        <v>3.10118921592255</v>
+        <v>3.105085496356575</v>
       </c>
       <c r="I19">
-        <v>2.724997444923589</v>
+        <v>2.773092823773991</v>
       </c>
       <c r="J19">
-        <v>8.765610569945432</v>
+        <v>8.99983636119674</v>
       </c>
       <c r="K19">
-        <v>13.35429873434868</v>
+        <v>12.83363037465945</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.91040286927711</v>
       </c>
       <c r="M19">
-        <v>13.33743632430856</v>
+        <v>8.10891831326583</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.27885482838576</v>
+        <v>13.43013375061185</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14.26988053603723</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.34389439514632</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.80584368016514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.35073404234064</v>
+        <v>14.21706576291438</v>
       </c>
       <c r="C20">
-        <v>9.742172566410584</v>
+        <v>10.19810437543402</v>
       </c>
       <c r="D20">
-        <v>8.584345236322264</v>
+        <v>8.583927715486578</v>
       </c>
       <c r="E20">
-        <v>18.22173631058741</v>
+        <v>18.14525816388887</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>24.4633325177491</v>
+        <v>22.90625238860247</v>
       </c>
       <c r="H20">
-        <v>2.219229213051468</v>
+        <v>2.219891667004103</v>
       </c>
       <c r="I20">
-        <v>2.81721220825226</v>
+        <v>2.853425957028468</v>
       </c>
       <c r="J20">
-        <v>9.155894371644626</v>
+        <v>9.229608415139282</v>
       </c>
       <c r="K20">
-        <v>14.05807332677316</v>
+        <v>13.36496002863974</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.24987455807902</v>
       </c>
       <c r="M20">
-        <v>13.2990094511474</v>
+        <v>8.62240307592743</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.45148208830831</v>
+        <v>13.41056639597872</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15.29186205485014</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.52731902001776</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>14.65998036363519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.12028092259077</v>
+        <v>14.96442697760586</v>
       </c>
       <c r="C21">
-        <v>10.18211227890067</v>
+        <v>10.67021425489469</v>
       </c>
       <c r="D21">
-        <v>9.123767624972585</v>
+        <v>9.120724406665047</v>
       </c>
       <c r="E21">
-        <v>19.65938757831661</v>
+        <v>19.56042310532263</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>25.28457941464351</v>
+        <v>25.20205019682623</v>
       </c>
       <c r="H21">
-        <v>2.477857258430832</v>
+        <v>2.463958960620365</v>
       </c>
       <c r="I21">
-        <v>2.9944203632738</v>
+        <v>3.002403095850086</v>
       </c>
       <c r="J21">
-        <v>9.193884472712158</v>
+        <v>8.545792647570289</v>
       </c>
       <c r="K21">
-        <v>14.07020055744133</v>
+        <v>13.14370757704112</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.9931323694055</v>
       </c>
       <c r="M21">
-        <v>13.9301700126741</v>
+        <v>8.649273553861146</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.57744087493842</v>
+        <v>14.03415444747007</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15.51866179918954</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.64868226284096</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>14.55729427289475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.6259687149574</v>
+        <v>15.45865997600748</v>
       </c>
       <c r="C22">
-        <v>10.43733548202322</v>
+        <v>10.93544115110934</v>
       </c>
       <c r="D22">
-        <v>9.461802174856615</v>
+        <v>9.456937007791467</v>
       </c>
       <c r="E22">
-        <v>20.29166870260032</v>
+        <v>20.18009786900503</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>25.76598229408388</v>
+        <v>26.764692331227</v>
       </c>
       <c r="H22">
-        <v>2.632644395130983</v>
+        <v>2.609546298335099</v>
       </c>
       <c r="I22">
-        <v>3.102254971291991</v>
+        <v>3.091098434218236</v>
       </c>
       <c r="J22">
-        <v>9.212146623704703</v>
+        <v>8.12358718235048</v>
       </c>
       <c r="K22">
-        <v>14.07045123343139</v>
+        <v>12.9824759820549</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.81965309019756</v>
       </c>
       <c r="M22">
-        <v>14.33327030050645</v>
+        <v>8.661265136224596</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.14958425981332</v>
+        <v>14.43091265745085</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15.64804565648076</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18.21689121331563</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.45816872369556</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.36531933185577</v>
+        <v>15.20208557586061</v>
       </c>
       <c r="C23">
-        <v>10.27664780408888</v>
+        <v>10.77799900158432</v>
       </c>
       <c r="D23">
-        <v>9.282770304665888</v>
+        <v>9.278988321900531</v>
       </c>
       <c r="E23">
-        <v>19.95993426961634</v>
+        <v>19.85482400873292</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>25.5591108553405</v>
+        <v>25.79450388543562</v>
       </c>
       <c r="H23">
-        <v>2.550773054657701</v>
+        <v>2.533092899198973</v>
       </c>
       <c r="I23">
-        <v>3.040728422704391</v>
+        <v>3.039106153137896</v>
       </c>
       <c r="J23">
-        <v>9.211147691651512</v>
+        <v>8.413198540349866</v>
       </c>
       <c r="K23">
-        <v>14.09261303806907</v>
+        <v>13.10595967916074</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.93517400123062</v>
       </c>
       <c r="M23">
-        <v>14.11466311464173</v>
+        <v>8.688213695142473</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.84377875390301</v>
+        <v>14.21808852299182</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15.60056588337923</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>17.91434322046038</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>14.55927419926709</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.32163591079669</v>
+        <v>14.18596919888967</v>
       </c>
       <c r="C24">
-        <v>9.692682513865254</v>
+        <v>10.15278901618865</v>
       </c>
       <c r="D24">
-        <v>8.575786956092548</v>
+        <v>8.575358578962545</v>
       </c>
       <c r="E24">
-        <v>18.64725148860045</v>
+        <v>18.56972104678344</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>24.70676208585626</v>
+        <v>23.12195503682397</v>
       </c>
       <c r="H24">
-        <v>2.23335611064855</v>
+        <v>2.233960217584364</v>
       </c>
       <c r="I24">
-        <v>2.810314917714668</v>
+        <v>2.844271054481835</v>
       </c>
       <c r="J24">
-        <v>9.199428880746643</v>
+        <v>9.273290294687394</v>
       </c>
       <c r="K24">
-        <v>14.14982793543129</v>
+        <v>13.44497742787831</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.30686860522706</v>
       </c>
       <c r="M24">
-        <v>13.26326616551942</v>
+        <v>8.687799725050413</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.64276770836252</v>
+        <v>13.37615858439337</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15.39805019184466</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.71948980958037</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>14.75868392015055</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.09962092853743</v>
+        <v>13.01717186645152</v>
       </c>
       <c r="C25">
-        <v>9.029586812710978</v>
+        <v>9.325178856889559</v>
       </c>
       <c r="D25">
-        <v>7.750680798702906</v>
+        <v>7.752203864748488</v>
       </c>
       <c r="E25">
-        <v>17.12313171457148</v>
+        <v>17.07755206008716</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>23.81718953169579</v>
+        <v>22.29180025111869</v>
       </c>
       <c r="H25">
-        <v>1.876155612143217</v>
+        <v>1.889756924643561</v>
       </c>
       <c r="I25">
-        <v>2.554434978641248</v>
+        <v>2.618449941173156</v>
       </c>
       <c r="J25">
-        <v>9.200651374876514</v>
+        <v>9.348212095343058</v>
       </c>
       <c r="K25">
-        <v>14.23270327614159</v>
+        <v>13.62819069385524</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.59457416188488</v>
       </c>
       <c r="M25">
-        <v>12.27902227325946</v>
+        <v>8.578789277305143</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.24767059867592</v>
+        <v>12.37383991114358</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15.20717820251821</v>
+        <v>15.31794902976029</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>14.68975239267693</v>
       </c>
     </row>
   </sheetData>
